--- a/IcePaHC/IcePaHC - á.xlsx
+++ b/IcePaHC/IcePaHC - á.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="List dative" sheetId="1" state="visible" r:id="rId3"/>
@@ -11,7 +11,7 @@
     <sheet name="Overview" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'List dative'!$A$1:$L$444</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'List dative'!$A$1:$L$241</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'List accusative'!$A$1:$L$204</definedName>
   </definedNames>
   <calcPr/>
@@ -1471,6 +1471,9 @@
     <t xml:space="preserve">og horfði út í buskann á meðan ég hlustaði á pabba hlusta á Wild Man Blues</t>
   </si>
   <si>
+    <t>que</t>
+  </si>
+  <si>
     <t xml:space="preserve">á hvað yrði úr</t>
   </si>
   <si>
@@ -1784,9 +1787,6 @@
   </si>
   <si>
     <t>Dative</t>
-  </si>
-  <si>
-    <t>(blank)</t>
   </si>
   <si>
     <t>Accusative</t>
@@ -2913,10 +2913,11 @@
       </sharedItems>
     </cacheField>
     <cacheField name="type">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems containsBlank="1" count="4">
         <m/>
         <s v="inf"/>
         <s v="tht"/>
+        <s v="que"/>
       </sharedItems>
     </cacheField>
     <cacheField name="label">
@@ -2975,9 +2976,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="valid">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="3">
         <m/>
         <n v="0"/>
+        <n v="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="case">
@@ -2993,9 +2995,11 @@
       </sharedItems>
     </cacheField>
     <cacheField name="type">
-      <sharedItems containsBlank="1" count="2">
+      <sharedItems containsBlank="1" count="4">
         <m/>
         <s v="inf"/>
+        <s v="que"/>
+        <s v="tht"/>
       </sharedItems>
     </cacheField>
     <cacheField name="label">
@@ -6096,7 +6100,7 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -6110,10 +6114,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="IP-INF"/>
     <s v="á pabba hlusta á Wild Man Blues"/>
     <s v="mamma"/>
@@ -6124,10 +6128,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
     <s v="CP-QUE"/>
     <s v="á hvað yrði úr"/>
     <s v="mamma"/>
@@ -6138,10 +6142,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="IP-INF-PRN"/>
     <s v="á því að fá Peter Lorre og Sidney Greenstreet í heimsókn á hverri stundu"/>
     <s v="mamma"/>
@@ -6152,10 +6156,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að hún segði það eins og persóna í skáldsögu eftir Skáldísi ömmu"/>
     <s v="mamma"/>
@@ -6166,10 +6170,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að þetta myndi enda þarna því ég hélt að þetta væri upphafið"/>
     <s v="mamma"/>
@@ -6180,10 +6184,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="IP-INF"/>
     <s v="á landið þjóta hjá"/>
     <s v="mamma"/>
@@ -6194,10 +6198,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
     <s v="CP-QUE"/>
     <s v="á því hvort um var að ræða Grettlu Enid Blydon eða Tolkien sem hann var farinn að lesa á ensku á ungum aldri Bítlana eða rapparann The Building teiknimyndasögur eða vatnslitamyndirnar sem Gróa amma málaði og sýndi honum alltaf þegar hann kom í heimsókn og spurði hvernig honum fyndist"/>
     <s v="mamma"/>
@@ -6208,10 +6212,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
     <s v="CP-QUE-SPE-PRN"/>
     <s v="á því hvernig fór fyrir Snorra kallinum"/>
     <s v="ofsi"/>
@@ -6222,10 +6226,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <s v="CP-THT"/>
     <s v="á að ég leitaði aldrei á þá að fyrra bragði"/>
     <s v="ofsi"/>
@@ -6236,10 +6240,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="IP-INF"/>
     <s v="á flokk manna fara nokkurskonar gandreið á hestum að vísu en á lofti og stefnandi til himna flokk manna í ljósum línklæðum eins og oft er sveipað utan um lík"/>
     <s v="ofsi"/>
@@ -6250,10 +6254,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="IP-INF-SPE"/>
     <s v="á að vera kominn í embætti þessa Hólabiskups taka sæti hins fatlaða meinlætabiskups sem var helst skotspónn hrekkja og illkvittinna gamanmála af hálfu þeirra sálna sem hann gætti"/>
     <s v="ofsi"/>
@@ -6264,10 +6268,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <s v="CP-THT"/>
     <s v="á að ég fari hér með völd konungs í hans fjarveru en fullu umboði"/>
     <s v="ofsi"/>
@@ -6278,10 +6282,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="IP-INF"/>
     <s v="á að fylgja sér inn í vinnustofu sína þar sem voru blekbyttur og skrifaðar bækur og skinnhlaði sem köttur svaf ofan á"/>
     <s v="ofsi"/>
@@ -6292,10 +6296,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að hann var logandi hræddur"/>
     <s v="ofsi"/>
@@ -6306,10 +6310,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <s v="CP-THT"/>
     <s v="á að Hrafn gæti haft rétt fyrir sér í því"/>
     <s v="ofsi"/>
@@ -6320,10 +6324,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="IP-INF"/>
     <s v="á að slást í þessa herför með okkur"/>
     <s v="ofsi"/>
@@ -6334,10 +6338,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <s v="CP-THT"/>
     <s v="á að ekki skuli þær fyllri gleggri eða gleðilegri"/>
     <s v="ofsi"/>
@@ -6348,10 +6352,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að augnabliki síðar er Sturla búinn að taka upp sama sið"/>
     <s v="ofsi"/>
@@ -6362,10 +6366,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
     <s v="CP-QUE-PRN"/>
     <s v="á því hvað það var"/>
     <s v="ofsi"/>
@@ -6376,10 +6380,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="IP-INF"/>
     <s v="á að hleypa honum ekki frá Noregi á ný"/>
     <s v="ofsi"/>
@@ -6390,10 +6394,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <s v="CP-THT"/>
     <s v="á að kannski heyrðu til mín aðrir á bænum"/>
     <s v="ofsi"/>
@@ -9083,10 +9087,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="IP-INF"/>
     <s v="á pabba hlusta á Wild Man Blues"/>
     <s v="mamma"/>
@@ -9097,10 +9101,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <s v="CP-QUE"/>
     <s v="á hvað yrði úr"/>
     <s v="mamma"/>
@@ -9111,10 +9115,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="IP-INF"/>
     <s v="á landið þjóta hjá"/>
     <s v="mamma"/>
@@ -9125,10 +9129,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
     <s v="CP-THT"/>
     <s v="á að ég leitaði aldrei á þá að fyrra bragði"/>
     <s v="ofsi"/>
@@ -9139,10 +9143,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="IP-INF"/>
     <s v="á flokk manna fara nokkurskonar gandreið á hestum að vísu en á lofti og stefnandi til himna flokk manna í ljósum línklæðum eins og oft er sveipað utan um lík"/>
     <s v="ofsi"/>
@@ -9153,10 +9157,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="IP-INF-SPE"/>
     <s v="á að vera kominn í embætti þessa Hólabiskups taka sæti hins fatlaða meinlætabiskups sem var helst skotspónn hrekkja og illkvittinna gamanmála af hálfu þeirra sálna sem hann gætti"/>
     <s v="ofsi"/>
@@ -9167,10 +9171,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
     <s v="CP-THT"/>
     <s v="á að ég fari hér með völd konungs í hans fjarveru en fullu umboði"/>
     <s v="ofsi"/>
@@ -9181,10 +9185,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="IP-INF"/>
     <s v="á að fylgja sér inn í vinnustofu sína þar sem voru blekbyttur og skrifaðar bækur og skinnhlaði sem köttur svaf ofan á"/>
     <s v="ofsi"/>
@@ -9195,10 +9199,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
     <s v="CP-THT"/>
     <s v="á að Hrafn gæti haft rétt fyrir sér í því"/>
     <s v="ofsi"/>
@@ -9209,10 +9213,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="IP-INF"/>
     <s v="á að slást í þessa herför með okkur"/>
     <s v="ofsi"/>
@@ -9223,10 +9227,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
     <s v="CP-THT"/>
     <s v="á að ekki skuli þær fyllri gleggri eða gleðilegri"/>
     <s v="ofsi"/>
@@ -9237,10 +9241,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="IP-INF"/>
     <s v="á að hleypa honum ekki frá Noregi á ný"/>
     <s v="ofsi"/>
@@ -9251,10 +9255,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
     <s v="CP-THT"/>
     <s v="á að kannski heyrðu til mín aðrir á bænum"/>
     <s v="ofsi"/>
@@ -9315,10 +9319,11 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9431,9 +9436,10 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item h="1" x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9452,9 +9458,11 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="3">
+      <items count="5">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14186,7 +14194,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="130" ht="14.25" hidden="1">
+    <row r="130" ht="14.25">
       <c r="A130" s="2">
         <v>0</v>
       </c>
@@ -14218,7 +14226,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="131" ht="14.25" hidden="1">
+    <row r="131" ht="14.25">
       <c r="A131" s="2">
         <v>0</v>
       </c>
@@ -14250,7 +14258,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" ht="14.25" hidden="1">
+    <row r="132" ht="14.25">
       <c r="A132" s="2">
         <v>0</v>
       </c>
@@ -14282,7 +14290,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="133" ht="14.25" hidden="1">
+    <row r="133" ht="14.25">
       <c r="A133" s="2">
         <v>0</v>
       </c>
@@ -14314,7 +14322,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="134" ht="14.25" hidden="1">
+    <row r="134" ht="14.25">
       <c r="A134" s="2">
         <v>0</v>
       </c>
@@ -14346,7 +14354,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="135" ht="14.25" hidden="1">
+    <row r="135" ht="14.25">
       <c r="A135" s="2">
         <v>0</v>
       </c>
@@ -14378,7 +14386,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="136" ht="14.25" hidden="1">
+    <row r="136" ht="14.25">
       <c r="A136" s="2">
         <v>0</v>
       </c>
@@ -14410,7 +14418,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="137" ht="14.25" hidden="1">
+    <row r="137" ht="14.25">
       <c r="A137" s="2">
         <v>0</v>
       </c>
@@ -14442,7 +14450,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="138" ht="14.25" hidden="1">
+    <row r="138" ht="14.25">
       <c r="A138" s="2">
         <v>0</v>
       </c>
@@ -14474,7 +14482,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="139" ht="14.25" hidden="1">
+    <row r="139" ht="14.25">
       <c r="A139" s="2">
         <v>1</v>
       </c>
@@ -14506,7 +14514,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="140" ht="14.25" hidden="1">
+    <row r="140" ht="14.25">
       <c r="A140" s="2">
         <v>1</v>
       </c>
@@ -14538,7 +14546,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="141" ht="14.25" hidden="1">
+    <row r="141" ht="14.25">
       <c r="A141" s="2">
         <v>0</v>
       </c>
@@ -14570,7 +14578,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="142" ht="14.25" hidden="1">
+    <row r="142" ht="14.25">
       <c r="A142" s="2">
         <v>1</v>
       </c>
@@ -14602,7 +14610,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="143" ht="14.25" hidden="1">
+    <row r="143" ht="14.25">
       <c r="A143" s="2">
         <v>0</v>
       </c>
@@ -14634,7 +14642,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="144" ht="14.25" hidden="1">
+    <row r="144" ht="14.25">
       <c r="A144" s="2">
         <v>0</v>
       </c>
@@ -14666,7 +14674,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="145" ht="14.25" hidden="1">
+    <row r="145" ht="14.25">
       <c r="A145" s="2">
         <v>0</v>
       </c>
@@ -14698,7 +14706,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="146" ht="14.25" hidden="1">
+    <row r="146" ht="14.25">
       <c r="A146" s="2">
         <v>0</v>
       </c>
@@ -14730,7 +14738,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="147" ht="14.25" hidden="1">
+    <row r="147" ht="14.25">
       <c r="A147" s="2">
         <v>0</v>
       </c>
@@ -14762,7 +14770,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="148" ht="14.25" hidden="1">
+    <row r="148" ht="14.25">
       <c r="A148" s="2">
         <v>0</v>
       </c>
@@ -14794,7 +14802,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="149" ht="14.25" hidden="1">
+    <row r="149" ht="14.25">
       <c r="A149" s="2">
         <v>1</v>
       </c>
@@ -14826,7 +14834,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="150" ht="14.25" hidden="1">
+    <row r="150" ht="14.25">
       <c r="A150" s="2">
         <v>1</v>
       </c>
@@ -14858,7 +14866,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="151" ht="14.25" hidden="1">
+    <row r="151" ht="14.25">
       <c r="A151" s="2">
         <v>1</v>
       </c>
@@ -14890,7 +14898,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="152" ht="14.25" hidden="1">
+    <row r="152" ht="14.25">
       <c r="A152" s="2">
         <v>0</v>
       </c>
@@ -14922,7 +14930,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="153" ht="14.25" hidden="1">
+    <row r="153" ht="14.25">
       <c r="A153" s="2">
         <v>0</v>
       </c>
@@ -14954,7 +14962,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="154" ht="14.25" hidden="1">
+    <row r="154" ht="14.25">
       <c r="A154" s="2">
         <v>1</v>
       </c>
@@ -14986,7 +14994,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="155" ht="14.25" hidden="1">
+    <row r="155" ht="14.25">
       <c r="A155" s="2">
         <v>1</v>
       </c>
@@ -15018,7 +15026,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="156" ht="14.25" hidden="1">
+    <row r="156" ht="14.25">
       <c r="A156" s="2">
         <v>0</v>
       </c>
@@ -15050,7 +15058,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="157" ht="14.25" hidden="1">
+    <row r="157" ht="14.25">
       <c r="A157" s="2">
         <v>0</v>
       </c>
@@ -15082,7 +15090,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="158" ht="14.25" hidden="1">
+    <row r="158" ht="14.25">
       <c r="A158" s="2">
         <v>1</v>
       </c>
@@ -15114,7 +15122,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="159" ht="14.25" hidden="1">
+    <row r="159" ht="14.25">
       <c r="A159" s="2">
         <v>1</v>
       </c>
@@ -15146,7 +15154,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="160" ht="14.25" hidden="1">
+    <row r="160" ht="14.25">
       <c r="A160" s="2">
         <v>0</v>
       </c>
@@ -15178,7 +15186,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="161" ht="14.25" hidden="1">
+    <row r="161" ht="14.25">
       <c r="A161" s="2">
         <v>1</v>
       </c>
@@ -15210,7 +15218,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="162" ht="14.25" hidden="1">
+    <row r="162" ht="14.25">
       <c r="A162" s="2">
         <v>1</v>
       </c>
@@ -15242,7 +15250,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="163" ht="14.25" hidden="1">
+    <row r="163" ht="14.25">
       <c r="A163" s="2">
         <v>1</v>
       </c>
@@ -15274,7 +15282,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="164" ht="14.25" hidden="1">
+    <row r="164" ht="14.25">
       <c r="A164" s="2">
         <v>1</v>
       </c>
@@ -15306,7 +15314,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="165" ht="14.25" hidden="1">
+    <row r="165" ht="14.25">
       <c r="A165" s="2">
         <v>0</v>
       </c>
@@ -15338,7 +15346,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="166" ht="14.25" hidden="1">
+    <row r="166" ht="14.25">
       <c r="A166" s="2">
         <v>0</v>
       </c>
@@ -15370,7 +15378,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="167" ht="14.25" hidden="1">
+    <row r="167" ht="14.25">
       <c r="A167" s="2">
         <v>0</v>
       </c>
@@ -15402,7 +15410,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="168" ht="14.25" hidden="1">
+    <row r="168" ht="14.25">
       <c r="A168" s="2">
         <v>1</v>
       </c>
@@ -15434,7 +15442,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="169" ht="14.25" hidden="1">
+    <row r="169" ht="14.25">
       <c r="A169" s="2">
         <v>0</v>
       </c>
@@ -15466,7 +15474,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="170" ht="14.25" hidden="1">
+    <row r="170" ht="14.25">
       <c r="A170" s="2">
         <v>0</v>
       </c>
@@ -15498,7 +15506,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="171" ht="14.25" hidden="1">
+    <row r="171" ht="14.25">
       <c r="A171" s="2">
         <v>1</v>
       </c>
@@ -15530,7 +15538,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="172" ht="14.25" hidden="1">
+    <row r="172" ht="14.25">
       <c r="A172" s="2">
         <v>0</v>
       </c>
@@ -15562,7 +15570,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="173" ht="14.25" hidden="1">
+    <row r="173" ht="14.25">
       <c r="A173" s="2">
         <v>0</v>
       </c>
@@ -15594,7 +15602,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="174" ht="14.25" hidden="1">
+    <row r="174" ht="14.25">
       <c r="A174" s="2">
         <v>0</v>
       </c>
@@ -15626,7 +15634,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="175" ht="14.25" hidden="1">
+    <row r="175" ht="14.25">
       <c r="A175" s="2">
         <v>0</v>
       </c>
@@ -15658,7 +15666,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="176" ht="14.25" hidden="1">
+    <row r="176" ht="14.25">
       <c r="A176" s="2">
         <v>0</v>
       </c>
@@ -15690,7 +15698,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="177" ht="14.25" hidden="1">
+    <row r="177" ht="14.25">
       <c r="A177" s="2">
         <v>1</v>
       </c>
@@ -15722,7 +15730,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="178" ht="14.25" hidden="1">
+    <row r="178" ht="14.25">
       <c r="A178" s="2">
         <v>0</v>
       </c>
@@ -15754,7 +15762,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="179" ht="14.25" hidden="1">
+    <row r="179" ht="14.25">
       <c r="A179" s="2">
         <v>0</v>
       </c>
@@ -15786,7 +15794,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="180" ht="14.25" hidden="1">
+    <row r="180" ht="14.25">
       <c r="A180" s="2">
         <v>1</v>
       </c>
@@ -15818,7 +15826,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="181" ht="14.25" hidden="1">
+    <row r="181" ht="14.25">
       <c r="A181" s="2">
         <v>0</v>
       </c>
@@ -15850,7 +15858,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="182" ht="14.25" hidden="1">
+    <row r="182" ht="14.25">
       <c r="A182" s="2">
         <v>0</v>
       </c>
@@ -15882,7 +15890,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="183" ht="14.25" hidden="1">
+    <row r="183" ht="14.25">
       <c r="A183" s="2">
         <v>0</v>
       </c>
@@ -15914,7 +15922,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="184" ht="14.25" hidden="1">
+    <row r="184" ht="14.25">
       <c r="A184" s="2">
         <v>0</v>
       </c>
@@ -15946,7 +15954,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="185" ht="14.25" hidden="1">
+    <row r="185" ht="14.25">
       <c r="A185" s="2">
         <v>0</v>
       </c>
@@ -15978,7 +15986,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="186" ht="14.25" hidden="1">
+    <row r="186" ht="14.25">
       <c r="A186" s="2">
         <v>0</v>
       </c>
@@ -16010,7 +16018,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="187" ht="14.25" hidden="1">
+    <row r="187" ht="14.25">
       <c r="A187" s="2">
         <v>0</v>
       </c>
@@ -16042,7 +16050,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="188" ht="14.25" hidden="1">
+    <row r="188" ht="14.25">
       <c r="A188" s="2">
         <v>0</v>
       </c>
@@ -16074,7 +16082,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="189" ht="14.25" hidden="1">
+    <row r="189" ht="14.25">
       <c r="A189" s="2">
         <v>0</v>
       </c>
@@ -16106,7 +16114,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="190" ht="14.25" hidden="1">
+    <row r="190" ht="14.25">
       <c r="A190" s="2">
         <v>0</v>
       </c>
@@ -16138,7 +16146,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="191" ht="14.25" hidden="1">
+    <row r="191" ht="14.25">
       <c r="A191" s="2">
         <v>1</v>
       </c>
@@ -16170,7 +16178,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="192" ht="14.25" hidden="1">
+    <row r="192" ht="14.25">
       <c r="A192" s="2">
         <v>0</v>
       </c>
@@ -16202,7 +16210,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="193" ht="14.25" hidden="1">
+    <row r="193" ht="14.25">
       <c r="A193" s="2">
         <v>0</v>
       </c>
@@ -16234,7 +16242,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="194" ht="14.25" hidden="1">
+    <row r="194" ht="14.25">
       <c r="A194" s="2">
         <v>1</v>
       </c>
@@ -16266,7 +16274,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="195" ht="14.25" hidden="1">
+    <row r="195" ht="14.25">
       <c r="A195" s="2">
         <v>1</v>
       </c>
@@ -16298,7 +16306,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="196" ht="14.25" hidden="1">
+    <row r="196" ht="14.25">
       <c r="A196" s="2">
         <v>1</v>
       </c>
@@ -16330,7 +16338,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="197" ht="14.25" hidden="1">
+    <row r="197" ht="14.25">
       <c r="A197" s="2">
         <v>1</v>
       </c>
@@ -16362,7 +16370,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="198" ht="14.25" hidden="1">
+    <row r="198" ht="14.25">
       <c r="A198" s="2">
         <v>1</v>
       </c>
@@ -16394,7 +16402,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="199" ht="14.25" hidden="1">
+    <row r="199" ht="14.25">
       <c r="A199" s="2">
         <v>1</v>
       </c>
@@ -16426,7 +16434,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="200" ht="14.25" hidden="1">
+    <row r="200" ht="14.25">
       <c r="A200" s="2">
         <v>1</v>
       </c>
@@ -16458,7 +16466,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="201" ht="14.25" hidden="1">
+    <row r="201" ht="14.25">
       <c r="A201" s="2">
         <v>0</v>
       </c>
@@ -16490,7 +16498,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="202" ht="14.25" hidden="1">
+    <row r="202" ht="14.25">
       <c r="A202" s="2">
         <v>1</v>
       </c>
@@ -16522,7 +16530,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="203" ht="14.25" hidden="1">
+    <row r="203" ht="14.25">
       <c r="A203" s="2">
         <v>1</v>
       </c>
@@ -16554,7 +16562,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="204" ht="14.25" hidden="1">
+    <row r="204" ht="14.25">
       <c r="A204" s="2">
         <v>1</v>
       </c>
@@ -16586,7 +16594,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="205" ht="14.25" hidden="1">
+    <row r="205" ht="14.25">
       <c r="A205" s="2">
         <v>1</v>
       </c>
@@ -16618,7 +16626,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="206" ht="14.25" hidden="1">
+    <row r="206" ht="14.25">
       <c r="A206" s="2">
         <v>1</v>
       </c>
@@ -16650,7 +16658,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="207" ht="14.25" hidden="1">
+    <row r="207" ht="14.25">
       <c r="A207" s="2">
         <v>0</v>
       </c>
@@ -16682,7 +16690,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="208" ht="14.25" hidden="1">
+    <row r="208" ht="14.25">
       <c r="A208" s="2">
         <v>0</v>
       </c>
@@ -16714,7 +16722,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="209" ht="14.25" hidden="1">
+    <row r="209" ht="14.25">
       <c r="A209" s="2">
         <v>0</v>
       </c>
@@ -16746,7 +16754,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="210" ht="14.25" hidden="1">
+    <row r="210" ht="14.25">
       <c r="A210" s="2">
         <v>0</v>
       </c>
@@ -16778,7 +16786,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="211" ht="14.25" hidden="1">
+    <row r="211" ht="14.25">
       <c r="A211" s="2">
         <v>0</v>
       </c>
@@ -16810,7 +16818,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="212" ht="14.25" hidden="1">
+    <row r="212" ht="14.25">
       <c r="A212" s="2">
         <v>0</v>
       </c>
@@ -16842,7 +16850,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="213" ht="14.25" hidden="1">
+    <row r="213" ht="14.25">
       <c r="A213" s="2">
         <v>0</v>
       </c>
@@ -16874,7 +16882,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="214" ht="14.25" hidden="1">
+    <row r="214" ht="14.25">
       <c r="A214" s="2">
         <v>0</v>
       </c>
@@ -16906,7 +16914,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="215" ht="14.25">
+    <row r="215" ht="14.25" hidden="1">
       <c r="A215" s="2">
         <v>0</v>
       </c>
@@ -16944,7 +16952,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="216" ht="14.25">
+    <row r="216" ht="14.25" hidden="1">
       <c r="A216" s="2">
         <v>1</v>
       </c>
@@ -16982,7 +16990,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="217" ht="14.25">
+    <row r="217" ht="14.25" hidden="1">
       <c r="A217" s="2">
         <v>1</v>
       </c>
@@ -17020,7 +17028,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="218" ht="14.25">
+    <row r="218" ht="14.25" hidden="1">
       <c r="A218" s="2">
         <v>1</v>
       </c>
@@ -17058,7 +17066,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="219" ht="14.25">
+    <row r="219" ht="14.25" hidden="1">
       <c r="A219" s="2">
         <v>0</v>
       </c>
@@ -17096,11 +17104,13 @@
         <v>476</v>
       </c>
     </row>
-    <row r="220" ht="14.25">
+    <row r="220" ht="14.25" hidden="1">
       <c r="A220" s="2">
         <v>1</v>
       </c>
-      <c r="B220" s="2"/>
+      <c r="B220" s="2">
+        <v>1</v>
+      </c>
       <c r="C220" s="2" t="s">
         <v>12</v>
       </c>
@@ -17132,16 +17142,22 @@
         <v>478</v>
       </c>
     </row>
-    <row r="221" ht="14.25">
+    <row r="221" ht="14.25" hidden="1">
       <c r="A221" s="2">
         <v>0</v>
       </c>
-      <c r="B221" s="2"/>
+      <c r="B221" s="2">
+        <v>0</v>
+      </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
+      <c r="D221" s="2">
+        <v>0</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="F221" s="3" t="s">
         <v>18</v>
       </c>
@@ -17164,21 +17180,27 @@
         <v>480</v>
       </c>
     </row>
-    <row r="222" ht="14.25">
+    <row r="222" ht="14.25" hidden="1">
       <c r="A222" s="2">
         <v>0</v>
       </c>
-      <c r="B222" s="2"/>
+      <c r="B222" s="2">
+        <v>0</v>
+      </c>
       <c r="C222" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
+      <c r="D222" s="2">
+        <v>0</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="F222" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H222" s="3" t="s">
         <v>466</v>
@@ -17193,26 +17215,30 @@
         <v>70902</v>
       </c>
       <c r="L222" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="223" ht="14.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="223" ht="14.25" hidden="1">
       <c r="A223" s="2">
         <v>1</v>
       </c>
-      <c r="B223" s="2"/>
+      <c r="B223" s="2">
+        <v>1</v>
+      </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2">
         <v>0</v>
       </c>
-      <c r="E223" s="2"/>
+      <c r="E223" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="F223" s="3" t="s">
         <v>149</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H223" s="3" t="s">
         <v>466</v>
@@ -17227,26 +17253,30 @@
         <v>70995</v>
       </c>
       <c r="L223" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="224" ht="14.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="224" ht="14.25" hidden="1">
       <c r="A224" s="2">
         <v>1</v>
       </c>
-      <c r="B224" s="2"/>
+      <c r="B224" s="2">
+        <v>1</v>
+      </c>
       <c r="C224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="2">
         <v>0</v>
       </c>
-      <c r="E224" s="2"/>
+      <c r="E224" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="F224" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H224" s="3" t="s">
         <v>466</v>
@@ -17261,26 +17291,30 @@
         <v>71042</v>
       </c>
       <c r="L224" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="225" ht="14.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="225" ht="14.25" hidden="1">
       <c r="A225" s="2">
         <v>1</v>
       </c>
-      <c r="B225" s="2"/>
+      <c r="B225" s="2">
+        <v>1</v>
+      </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2">
         <v>0</v>
       </c>
-      <c r="E225" s="2"/>
+      <c r="E225" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="F225" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H225" s="3" t="s">
         <v>466</v>
@@ -17295,24 +17329,30 @@
         <v>71052</v>
       </c>
       <c r="L225" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="226" ht="14.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="226" ht="14.25" hidden="1">
       <c r="A226" s="2">
         <v>0</v>
       </c>
-      <c r="B226" s="2"/>
+      <c r="B226" s="2">
+        <v>0</v>
+      </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
+      <c r="D226" s="2">
+        <v>0</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="F226" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H226" s="3" t="s">
         <v>466</v>
@@ -17327,26 +17367,30 @@
         <v>71295</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="227" ht="14.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="227" ht="14.25" hidden="1">
       <c r="A227" s="2">
         <v>1</v>
       </c>
-      <c r="B227" s="2"/>
+      <c r="B227" s="2">
+        <v>1</v>
+      </c>
       <c r="C227" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D227" s="2">
         <v>0</v>
       </c>
-      <c r="E227" s="2"/>
+      <c r="E227" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="F227" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H227" s="3" t="s">
         <v>466</v>
@@ -17361,29 +17405,33 @@
         <v>71307</v>
       </c>
       <c r="L227" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="228" ht="14.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="228" ht="14.25" hidden="1">
       <c r="A228" s="2">
         <v>1</v>
       </c>
-      <c r="B228" s="2"/>
+      <c r="B228" s="2">
+        <v>1</v>
+      </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2">
         <v>0</v>
       </c>
-      <c r="E228" s="2"/>
+      <c r="E228" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="F228" s="3" t="s">
         <v>145</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I228" s="3">
         <v>21</v>
@@ -17395,27 +17443,33 @@
         <v>71910</v>
       </c>
       <c r="L228" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="229" ht="14.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="229" ht="14.25" hidden="1">
       <c r="A229" s="2">
         <v>0</v>
       </c>
-      <c r="B229" s="2"/>
+      <c r="B229" s="2">
+        <v>0</v>
+      </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
+      <c r="D229" s="2">
+        <v>0</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="F229" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I229" s="3">
         <v>21</v>
@@ -17427,27 +17481,33 @@
         <v>71917</v>
       </c>
       <c r="L229" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="230" ht="14.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="230" ht="14.25" hidden="1">
       <c r="A230" s="2">
         <v>0</v>
       </c>
-      <c r="B230" s="2"/>
+      <c r="B230" s="2">
+        <v>0</v>
+      </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
+      <c r="D230" s="2">
+        <v>0</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="F230" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I230" s="3">
         <v>21</v>
@@ -17459,27 +17519,33 @@
         <v>71950</v>
       </c>
       <c r="L230" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="231" ht="14.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="231" ht="14.25" hidden="1">
       <c r="A231" s="2">
         <v>0</v>
       </c>
-      <c r="B231" s="2"/>
+      <c r="B231" s="2">
+        <v>0</v>
+      </c>
       <c r="C231" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
+      <c r="D231" s="2">
+        <v>0</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="F231" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I231" s="3">
         <v>21</v>
@@ -17491,27 +17557,33 @@
         <v>72158</v>
       </c>
       <c r="L231" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="232" ht="14.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="232" ht="14.25" hidden="1">
       <c r="A232" s="2">
         <v>0</v>
       </c>
-      <c r="B232" s="2"/>
+      <c r="B232" s="2">
+        <v>0</v>
+      </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
+      <c r="D232" s="2">
+        <v>0</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="F232" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I232" s="3">
         <v>21</v>
@@ -17523,27 +17595,33 @@
         <v>72212</v>
       </c>
       <c r="L232" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="233" ht="14.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="233" ht="14.25" hidden="1">
       <c r="A233" s="2">
         <v>0</v>
       </c>
-      <c r="B233" s="2"/>
+      <c r="B233" s="2">
+        <v>0</v>
+      </c>
       <c r="C233" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
+      <c r="D233" s="2">
+        <v>0</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="F233" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I233" s="3">
         <v>21</v>
@@ -17555,27 +17633,33 @@
         <v>72269</v>
       </c>
       <c r="L233" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="234" ht="14.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="234" ht="14.25" hidden="1">
       <c r="A234" s="2">
         <v>1</v>
       </c>
-      <c r="B234" s="2"/>
+      <c r="B234" s="2">
+        <v>1</v>
+      </c>
       <c r="C234" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
+      <c r="D234" s="2">
+        <v>0</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="F234" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I234" s="3">
         <v>21</v>
@@ -17587,27 +17671,33 @@
         <v>72535</v>
       </c>
       <c r="L234" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="235" ht="14.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="235" ht="14.25" hidden="1">
       <c r="A235" s="2">
         <v>0</v>
       </c>
-      <c r="B235" s="2"/>
+      <c r="B235" s="2">
+        <v>0</v>
+      </c>
       <c r="C235" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
+      <c r="D235" s="2">
+        <v>0</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="F235" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I235" s="3">
         <v>21</v>
@@ -17619,27 +17709,33 @@
         <v>72541</v>
       </c>
       <c r="L235" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="236" ht="14.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="236" ht="14.25" hidden="1">
       <c r="A236" s="2">
         <v>0</v>
       </c>
-      <c r="B236" s="2"/>
+      <c r="B236" s="2">
+        <v>0</v>
+      </c>
       <c r="C236" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
+      <c r="D236" s="2">
+        <v>0</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="F236" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I236" s="3">
         <v>21</v>
@@ -17651,27 +17747,33 @@
         <v>72561</v>
       </c>
       <c r="L236" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="237" ht="14.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="237" ht="14.25" hidden="1">
       <c r="A237" s="2">
         <v>0</v>
       </c>
-      <c r="B237" s="2"/>
+      <c r="B237" s="2">
+        <v>1</v>
+      </c>
       <c r="C237" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
+      <c r="D237" s="2">
+        <v>0</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="F237" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I237" s="3">
         <v>21</v>
@@ -17683,27 +17785,33 @@
         <v>72653</v>
       </c>
       <c r="L237" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="238" ht="14.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="238" ht="14.25" hidden="1">
       <c r="A238" s="2">
         <v>1</v>
       </c>
-      <c r="B238" s="2"/>
+      <c r="B238" s="2">
+        <v>1</v>
+      </c>
       <c r="C238" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
+      <c r="D238" s="2">
+        <v>0</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="F238" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I238" s="3">
         <v>21</v>
@@ -17715,27 +17823,33 @@
         <v>72771</v>
       </c>
       <c r="L238" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="239" ht="14.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="239" ht="14.25" hidden="1">
       <c r="A239" s="2">
         <v>1</v>
       </c>
-      <c r="B239" s="2"/>
+      <c r="B239" s="2">
+        <v>1</v>
+      </c>
       <c r="C239" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
+      <c r="D239" s="2">
+        <v>0</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="F239" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I239" s="3">
         <v>21</v>
@@ -17747,27 +17861,33 @@
         <v>72821</v>
       </c>
       <c r="L239" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="240" ht="14.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="240" ht="14.25" hidden="1">
       <c r="A240" s="2">
         <v>0</v>
       </c>
-      <c r="B240" s="2"/>
+      <c r="B240" s="2">
+        <v>1</v>
+      </c>
       <c r="C240" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
+      <c r="D240" s="2">
+        <v>0</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="F240" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I240" s="3">
         <v>21</v>
@@ -17779,27 +17899,33 @@
         <v>72871</v>
       </c>
       <c r="L240" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="241" ht="14.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="241" ht="14.25" hidden="1">
       <c r="A241" s="2">
         <v>0</v>
       </c>
-      <c r="B241" s="2"/>
+      <c r="B241" s="2">
+        <v>1</v>
+      </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
+      <c r="D241" s="2">
+        <v>0</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="F241" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I241" s="3">
         <v>21</v>
@@ -17811,10 +17937,10 @@
         <v>72982</v>
       </c>
       <c r="L241" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="242" ht="14.25" hidden="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="242" ht="14.25">
       <c r="A242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
@@ -17825,7 +17951,7 @@
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
     </row>
-    <row r="243" ht="14.25" hidden="1">
+    <row r="243" ht="14.25">
       <c r="C243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
@@ -17836,7 +17962,7 @@
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
     </row>
-    <row r="244" ht="14.25" hidden="1">
+    <row r="244" ht="14.25">
       <c r="C244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
@@ -17847,7 +17973,7 @@
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
     </row>
-    <row r="245" ht="14.25" hidden="1">
+    <row r="245" ht="14.25">
       <c r="C245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
@@ -17858,7 +17984,7 @@
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
     </row>
-    <row r="246" ht="14.25" hidden="1">
+    <row r="246" ht="14.25">
       <c r="C246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
@@ -17869,7 +17995,7 @@
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
     </row>
-    <row r="247" ht="14.25" hidden="1">
+    <row r="247" ht="14.25">
       <c r="C247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
@@ -17880,7 +18006,7 @@
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
     </row>
-    <row r="248" ht="14.25" hidden="1">
+    <row r="248" ht="14.25">
       <c r="C248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
@@ -17891,7 +18017,7 @@
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
     </row>
-    <row r="249" ht="14.25" hidden="1">
+    <row r="249" ht="14.25">
       <c r="C249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
@@ -17902,7 +18028,7 @@
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
     </row>
-    <row r="250" ht="14.25" hidden="1">
+    <row r="250" ht="14.25">
       <c r="C250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
@@ -17913,7 +18039,7 @@
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
     </row>
-    <row r="251" ht="14.25" hidden="1">
+    <row r="251" ht="14.25">
       <c r="C251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
@@ -17924,7 +18050,7 @@
       <c r="K251" s="1"/>
       <c r="L251" s="1"/>
     </row>
-    <row r="252" ht="14.25" hidden="1">
+    <row r="252" ht="14.25">
       <c r="C252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
@@ -17935,7 +18061,7 @@
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
     </row>
-    <row r="253" ht="14.25" hidden="1">
+    <row r="253" ht="14.25">
       <c r="C253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
@@ -17946,7 +18072,7 @@
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
     </row>
-    <row r="254" ht="14.25" hidden="1">
+    <row r="254" ht="14.25">
       <c r="C254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
@@ -17957,7 +18083,7 @@
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
     </row>
-    <row r="255" ht="14.25" hidden="1">
+    <row r="255" ht="14.25">
       <c r="C255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -17968,7 +18094,7 @@
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
     </row>
-    <row r="256" ht="14.25" hidden="1">
+    <row r="256" ht="14.25">
       <c r="C256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
@@ -17979,7 +18105,7 @@
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
     </row>
-    <row r="257" ht="14.25" hidden="1">
+    <row r="257" ht="14.25">
       <c r="C257" s="1"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
@@ -17990,7 +18116,7 @@
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
     </row>
-    <row r="258" ht="14.25" hidden="1">
+    <row r="258" ht="14.25">
       <c r="C258" s="1"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
@@ -18001,7 +18127,7 @@
       <c r="K258" s="1"/>
       <c r="L258" s="1"/>
     </row>
-    <row r="259" ht="14.25" hidden="1">
+    <row r="259" ht="14.25">
       <c r="C259" s="1"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
@@ -18012,7 +18138,7 @@
       <c r="K259" s="1"/>
       <c r="L259" s="1"/>
     </row>
-    <row r="260" ht="14.25" hidden="1">
+    <row r="260" ht="14.25">
       <c r="C260" s="1"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
@@ -18023,7 +18149,7 @@
       <c r="K260" s="1"/>
       <c r="L260" s="1"/>
     </row>
-    <row r="261" ht="14.25" hidden="1">
+    <row r="261" ht="14.25">
       <c r="C261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
@@ -18034,7 +18160,7 @@
       <c r="K261" s="1"/>
       <c r="L261" s="1"/>
     </row>
-    <row r="262" ht="14.25" hidden="1">
+    <row r="262" ht="14.25">
       <c r="C262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
@@ -18045,7 +18171,7 @@
       <c r="K262" s="1"/>
       <c r="L262" s="1"/>
     </row>
-    <row r="263" ht="14.25" hidden="1">
+    <row r="263" ht="14.25">
       <c r="C263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
@@ -18056,7 +18182,7 @@
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
     </row>
-    <row r="264" ht="14.25" hidden="1">
+    <row r="264" ht="14.25">
       <c r="C264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
@@ -18067,7 +18193,7 @@
       <c r="K264" s="1"/>
       <c r="L264" s="1"/>
     </row>
-    <row r="265" ht="14.25" hidden="1">
+    <row r="265" ht="14.25">
       <c r="C265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
@@ -18078,7 +18204,7 @@
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
     </row>
-    <row r="266" ht="14.25" hidden="1">
+    <row r="266" ht="14.25">
       <c r="C266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
@@ -18089,7 +18215,7 @@
       <c r="K266" s="1"/>
       <c r="L266" s="1"/>
     </row>
-    <row r="267" ht="14.25" hidden="1">
+    <row r="267" ht="14.25">
       <c r="C267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
@@ -18100,7 +18226,7 @@
       <c r="K267" s="1"/>
       <c r="L267" s="1"/>
     </row>
-    <row r="268" ht="14.25" hidden="1">
+    <row r="268" ht="14.25">
       <c r="C268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
@@ -18111,7 +18237,7 @@
       <c r="K268" s="1"/>
       <c r="L268" s="1"/>
     </row>
-    <row r="269" ht="14.25" hidden="1">
+    <row r="269" ht="14.25">
       <c r="C269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
@@ -18122,7 +18248,7 @@
       <c r="K269" s="1"/>
       <c r="L269" s="1"/>
     </row>
-    <row r="270" ht="14.25" hidden="1">
+    <row r="270" ht="14.25">
       <c r="C270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
@@ -18133,7 +18259,7 @@
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
     </row>
-    <row r="271" ht="14.25" hidden="1">
+    <row r="271" ht="14.25">
       <c r="C271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
@@ -18144,7 +18270,7 @@
       <c r="K271" s="1"/>
       <c r="L271" s="1"/>
     </row>
-    <row r="272" ht="14.25" hidden="1">
+    <row r="272" ht="14.25">
       <c r="C272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
@@ -18155,7 +18281,7 @@
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
     </row>
-    <row r="273" ht="14.25" hidden="1">
+    <row r="273" ht="14.25">
       <c r="C273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
@@ -18166,7 +18292,7 @@
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
     </row>
-    <row r="274" ht="14.25" hidden="1">
+    <row r="274" ht="14.25">
       <c r="C274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
@@ -18177,7 +18303,7 @@
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
     </row>
-    <row r="275" ht="14.25" hidden="1">
+    <row r="275" ht="14.25">
       <c r="C275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
@@ -18188,7 +18314,7 @@
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
     </row>
-    <row r="276" ht="14.25" hidden="1">
+    <row r="276" ht="14.25">
       <c r="C276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
@@ -18199,7 +18325,7 @@
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
     </row>
-    <row r="277" ht="14.25" hidden="1">
+    <row r="277" ht="14.25">
       <c r="C277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
@@ -18210,7 +18336,7 @@
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
     </row>
-    <row r="278" ht="14.25" hidden="1">
+    <row r="278" ht="14.25">
       <c r="C278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
@@ -18221,7 +18347,7 @@
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
     </row>
-    <row r="279" ht="14.25" hidden="1">
+    <row r="279" ht="14.25">
       <c r="C279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
@@ -18232,7 +18358,7 @@
       <c r="K279" s="1"/>
       <c r="L279" s="1"/>
     </row>
-    <row r="280" ht="14.25" hidden="1">
+    <row r="280" ht="14.25">
       <c r="C280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
@@ -18243,7 +18369,7 @@
       <c r="K280" s="1"/>
       <c r="L280" s="1"/>
     </row>
-    <row r="281" ht="14.25" hidden="1">
+    <row r="281" ht="14.25">
       <c r="C281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
@@ -18254,7 +18380,7 @@
       <c r="K281" s="1"/>
       <c r="L281" s="1"/>
     </row>
-    <row r="282" ht="14.25" hidden="1">
+    <row r="282" ht="14.25">
       <c r="C282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
@@ -18265,7 +18391,7 @@
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
     </row>
-    <row r="283" ht="14.25" hidden="1">
+    <row r="283" ht="14.25">
       <c r="C283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
@@ -18276,7 +18402,7 @@
       <c r="K283" s="1"/>
       <c r="L283" s="1"/>
     </row>
-    <row r="284" ht="14.25" hidden="1">
+    <row r="284" ht="14.25">
       <c r="C284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
@@ -18287,7 +18413,7 @@
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
     </row>
-    <row r="285" ht="14.25" hidden="1">
+    <row r="285" ht="14.25">
       <c r="C285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
@@ -18298,7 +18424,7 @@
       <c r="K285" s="1"/>
       <c r="L285" s="1"/>
     </row>
-    <row r="286" ht="14.25" hidden="1">
+    <row r="286" ht="14.25">
       <c r="C286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
@@ -18309,7 +18435,7 @@
       <c r="K286" s="1"/>
       <c r="L286" s="1"/>
     </row>
-    <row r="287" ht="14.25" hidden="1">
+    <row r="287" ht="14.25">
       <c r="C287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
@@ -18320,7 +18446,7 @@
       <c r="K287" s="1"/>
       <c r="L287" s="1"/>
     </row>
-    <row r="288" ht="14.25" hidden="1">
+    <row r="288" ht="14.25">
       <c r="C288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
@@ -18331,7 +18457,7 @@
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
     </row>
-    <row r="289" ht="14.25" hidden="1">
+    <row r="289" ht="14.25">
       <c r="C289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
@@ -18342,7 +18468,7 @@
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
     </row>
-    <row r="290" ht="14.25" hidden="1">
+    <row r="290" ht="14.25">
       <c r="C290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
@@ -18353,7 +18479,7 @@
       <c r="K290" s="1"/>
       <c r="L290" s="1"/>
     </row>
-    <row r="291" ht="14.25" hidden="1">
+    <row r="291" ht="14.25">
       <c r="C291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
@@ -18364,7 +18490,7 @@
       <c r="K291" s="1"/>
       <c r="L291" s="1"/>
     </row>
-    <row r="292" ht="14.25" hidden="1">
+    <row r="292" ht="14.25">
       <c r="C292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
@@ -18375,7 +18501,7 @@
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
     </row>
-    <row r="293" ht="14.25" hidden="1">
+    <row r="293" ht="14.25">
       <c r="C293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
@@ -18386,7 +18512,7 @@
       <c r="K293" s="1"/>
       <c r="L293" s="1"/>
     </row>
-    <row r="294" ht="14.25" hidden="1">
+    <row r="294" ht="14.25">
       <c r="C294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
@@ -18397,7 +18523,7 @@
       <c r="K294" s="1"/>
       <c r="L294" s="1"/>
     </row>
-    <row r="295" ht="14.25" hidden="1">
+    <row r="295" ht="14.25">
       <c r="C295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
@@ -18408,7 +18534,7 @@
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
     </row>
-    <row r="296" ht="14.25" hidden="1">
+    <row r="296" ht="14.25">
       <c r="C296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
@@ -18419,7 +18545,7 @@
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
     </row>
-    <row r="297" ht="14.25" hidden="1">
+    <row r="297" ht="14.25">
       <c r="C297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
@@ -18430,7 +18556,7 @@
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
     </row>
-    <row r="298" ht="14.25" hidden="1">
+    <row r="298" ht="14.25">
       <c r="C298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
@@ -18441,7 +18567,7 @@
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
     </row>
-    <row r="299" ht="14.25" hidden="1">
+    <row r="299" ht="14.25">
       <c r="C299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
@@ -18452,7 +18578,7 @@
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
     </row>
-    <row r="300" ht="14.25" hidden="1">
+    <row r="300" ht="14.25">
       <c r="C300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
@@ -18463,7 +18589,7 @@
       <c r="K300" s="1"/>
       <c r="L300" s="1"/>
     </row>
-    <row r="301" ht="14.25" hidden="1">
+    <row r="301" ht="14.25">
       <c r="C301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
@@ -18474,7 +18600,7 @@
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
     </row>
-    <row r="302" ht="14.25" hidden="1">
+    <row r="302" ht="14.25">
       <c r="C302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
@@ -18485,7 +18611,7 @@
       <c r="K302" s="1"/>
       <c r="L302" s="1"/>
     </row>
-    <row r="303" ht="14.25" hidden="1">
+    <row r="303" ht="14.25">
       <c r="C303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
@@ -18496,7 +18622,7 @@
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
     </row>
-    <row r="304" ht="14.25" hidden="1">
+    <row r="304" ht="14.25">
       <c r="C304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
@@ -18507,7 +18633,7 @@
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
     </row>
-    <row r="305" ht="14.25" hidden="1">
+    <row r="305" ht="14.25">
       <c r="C305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
@@ -18518,7 +18644,7 @@
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
     </row>
-    <row r="306" ht="14.25" hidden="1">
+    <row r="306" ht="14.25">
       <c r="C306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
@@ -18529,7 +18655,7 @@
       <c r="K306" s="1"/>
       <c r="L306" s="1"/>
     </row>
-    <row r="307" ht="14.25" hidden="1">
+    <row r="307" ht="14.25">
       <c r="C307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
@@ -18540,7 +18666,7 @@
       <c r="K307" s="1"/>
       <c r="L307" s="1"/>
     </row>
-    <row r="308" ht="14.25" hidden="1">
+    <row r="308" ht="14.25">
       <c r="C308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
@@ -18551,7 +18677,7 @@
       <c r="K308" s="1"/>
       <c r="L308" s="1"/>
     </row>
-    <row r="309" ht="14.25" hidden="1">
+    <row r="309" ht="14.25">
       <c r="C309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
@@ -18562,7 +18688,7 @@
       <c r="K309" s="1"/>
       <c r="L309" s="1"/>
     </row>
-    <row r="310" ht="14.25" hidden="1">
+    <row r="310" ht="14.25">
       <c r="C310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
@@ -18573,7 +18699,7 @@
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
     </row>
-    <row r="311" ht="14.25" hidden="1">
+    <row r="311" ht="14.25">
       <c r="C311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
@@ -18584,7 +18710,7 @@
       <c r="K311" s="1"/>
       <c r="L311" s="1"/>
     </row>
-    <row r="312" ht="14.25" hidden="1">
+    <row r="312" ht="14.25">
       <c r="C312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
@@ -18595,7 +18721,7 @@
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
     </row>
-    <row r="313" ht="14.25" hidden="1">
+    <row r="313" ht="14.25">
       <c r="C313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
@@ -18606,7 +18732,7 @@
       <c r="K313" s="1"/>
       <c r="L313" s="1"/>
     </row>
-    <row r="314" ht="14.25" hidden="1">
+    <row r="314" ht="14.25">
       <c r="C314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
@@ -18617,7 +18743,7 @@
       <c r="K314" s="1"/>
       <c r="L314" s="1"/>
     </row>
-    <row r="315" ht="14.25" hidden="1">
+    <row r="315" ht="14.25">
       <c r="C315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
@@ -18628,7 +18754,7 @@
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
     </row>
-    <row r="316" ht="14.25" hidden="1">
+    <row r="316" ht="14.25">
       <c r="C316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
@@ -18639,7 +18765,7 @@
       <c r="K316" s="1"/>
       <c r="L316" s="1"/>
     </row>
-    <row r="317" ht="14.25" hidden="1">
+    <row r="317" ht="14.25">
       <c r="C317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
@@ -18650,7 +18776,7 @@
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
     </row>
-    <row r="318" ht="14.25" hidden="1">
+    <row r="318" ht="14.25">
       <c r="C318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
@@ -18661,7 +18787,7 @@
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
     </row>
-    <row r="319" ht="14.25" hidden="1">
+    <row r="319" ht="14.25">
       <c r="C319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
@@ -18672,7 +18798,7 @@
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
     </row>
-    <row r="320" ht="14.25" hidden="1">
+    <row r="320" ht="14.25">
       <c r="C320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
@@ -18683,7 +18809,7 @@
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
     </row>
-    <row r="321" ht="14.25" hidden="1">
+    <row r="321" ht="14.25">
       <c r="C321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
@@ -18694,7 +18820,7 @@
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
     </row>
-    <row r="322" ht="14.25" hidden="1">
+    <row r="322" ht="14.25">
       <c r="C322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
@@ -18705,7 +18831,7 @@
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
     </row>
-    <row r="323" ht="14.25" hidden="1">
+    <row r="323" ht="14.25">
       <c r="C323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
@@ -18716,7 +18842,7 @@
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
     </row>
-    <row r="324" ht="14.25" hidden="1">
+    <row r="324" ht="14.25">
       <c r="C324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
@@ -18727,7 +18853,7 @@
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
     </row>
-    <row r="325" ht="14.25" hidden="1">
+    <row r="325" ht="14.25">
       <c r="C325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
@@ -18738,7 +18864,7 @@
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
     </row>
-    <row r="326" ht="14.25" hidden="1">
+    <row r="326" ht="14.25">
       <c r="C326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
@@ -18749,7 +18875,7 @@
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
     </row>
-    <row r="327" ht="14.25" hidden="1">
+    <row r="327" ht="14.25">
       <c r="C327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
@@ -18760,7 +18886,7 @@
       <c r="K327" s="1"/>
       <c r="L327" s="1"/>
     </row>
-    <row r="328" ht="14.25" hidden="1">
+    <row r="328" ht="14.25">
       <c r="C328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
@@ -18771,7 +18897,7 @@
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
     </row>
-    <row r="329" ht="14.25" hidden="1">
+    <row r="329" ht="14.25">
       <c r="C329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
@@ -18782,7 +18908,7 @@
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
     </row>
-    <row r="330" ht="14.25" hidden="1">
+    <row r="330" ht="14.25">
       <c r="C330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
@@ -18793,7 +18919,7 @@
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
     </row>
-    <row r="331" ht="14.25" hidden="1">
+    <row r="331" ht="14.25">
       <c r="C331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
@@ -18804,7 +18930,7 @@
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
     </row>
-    <row r="332" ht="14.25" hidden="1">
+    <row r="332" ht="14.25">
       <c r="C332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
@@ -18815,7 +18941,7 @@
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
     </row>
-    <row r="333" ht="14.25" hidden="1">
+    <row r="333" ht="14.25">
       <c r="C333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
@@ -18826,7 +18952,7 @@
       <c r="K333" s="1"/>
       <c r="L333" s="1"/>
     </row>
-    <row r="334" ht="14.25" hidden="1">
+    <row r="334" ht="14.25">
       <c r="C334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
@@ -18837,7 +18963,7 @@
       <c r="K334" s="1"/>
       <c r="L334" s="1"/>
     </row>
-    <row r="335" ht="14.25" hidden="1">
+    <row r="335" ht="14.25">
       <c r="C335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
@@ -18848,7 +18974,7 @@
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
     </row>
-    <row r="336" ht="14.25" hidden="1">
+    <row r="336" ht="14.25">
       <c r="C336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
@@ -18859,7 +18985,7 @@
       <c r="K336" s="1"/>
       <c r="L336" s="1"/>
     </row>
-    <row r="337" ht="14.25" hidden="1">
+    <row r="337" ht="14.25">
       <c r="C337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
@@ -18870,7 +18996,7 @@
       <c r="K337" s="1"/>
       <c r="L337" s="1"/>
     </row>
-    <row r="338" ht="14.25" hidden="1">
+    <row r="338" ht="14.25">
       <c r="C338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
@@ -18881,7 +19007,7 @@
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
     </row>
-    <row r="339" ht="14.25" hidden="1">
+    <row r="339" ht="14.25">
       <c r="C339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
@@ -18892,7 +19018,7 @@
       <c r="K339" s="1"/>
       <c r="L339" s="1"/>
     </row>
-    <row r="340" ht="14.25" hidden="1">
+    <row r="340" ht="14.25">
       <c r="C340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
@@ -18903,7 +19029,7 @@
       <c r="K340" s="1"/>
       <c r="L340" s="1"/>
     </row>
-    <row r="341" ht="14.25" hidden="1">
+    <row r="341" ht="14.25">
       <c r="C341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
@@ -18914,7 +19040,7 @@
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
     </row>
-    <row r="342" ht="14.25" hidden="1">
+    <row r="342" ht="14.25">
       <c r="C342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
@@ -18925,7 +19051,7 @@
       <c r="K342" s="1"/>
       <c r="L342" s="1"/>
     </row>
-    <row r="343" ht="14.25" hidden="1">
+    <row r="343" ht="14.25">
       <c r="C343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
@@ -18936,7 +19062,7 @@
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
     </row>
-    <row r="344" ht="14.25" hidden="1">
+    <row r="344" ht="14.25">
       <c r="C344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
@@ -18947,7 +19073,7 @@
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
     </row>
-    <row r="345" ht="14.25" hidden="1">
+    <row r="345" ht="14.25">
       <c r="C345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
@@ -18958,7 +19084,7 @@
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
     </row>
-    <row r="346" ht="14.25" hidden="1">
+    <row r="346" ht="14.25">
       <c r="C346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
@@ -18969,7 +19095,7 @@
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
     </row>
-    <row r="347" ht="14.25" hidden="1">
+    <row r="347" ht="14.25">
       <c r="C347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
@@ -18980,7 +19106,7 @@
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
     </row>
-    <row r="348" ht="14.25" hidden="1">
+    <row r="348" ht="14.25">
       <c r="C348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
@@ -18991,7 +19117,7 @@
       <c r="K348" s="1"/>
       <c r="L348" s="1"/>
     </row>
-    <row r="349" ht="14.25" hidden="1">
+    <row r="349" ht="14.25">
       <c r="C349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
@@ -19002,7 +19128,7 @@
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
     </row>
-    <row r="350" ht="14.25" hidden="1">
+    <row r="350" ht="14.25">
       <c r="C350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
@@ -19013,7 +19139,7 @@
       <c r="K350" s="1"/>
       <c r="L350" s="1"/>
     </row>
-    <row r="351" ht="14.25" hidden="1">
+    <row r="351" ht="14.25">
       <c r="C351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
@@ -19024,7 +19150,7 @@
       <c r="K351" s="1"/>
       <c r="L351" s="1"/>
     </row>
-    <row r="352" ht="14.25" hidden="1">
+    <row r="352" ht="14.25">
       <c r="C352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
@@ -19035,7 +19161,7 @@
       <c r="K352" s="1"/>
       <c r="L352" s="1"/>
     </row>
-    <row r="353" ht="14.25" hidden="1">
+    <row r="353" ht="14.25">
       <c r="C353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
@@ -19046,7 +19172,7 @@
       <c r="K353" s="1"/>
       <c r="L353" s="1"/>
     </row>
-    <row r="354" ht="14.25" hidden="1">
+    <row r="354" ht="14.25">
       <c r="C354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
@@ -19057,7 +19183,7 @@
       <c r="K354" s="1"/>
       <c r="L354" s="1"/>
     </row>
-    <row r="355" ht="14.25" hidden="1">
+    <row r="355" ht="14.25">
       <c r="C355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
@@ -19068,7 +19194,7 @@
       <c r="K355" s="1"/>
       <c r="L355" s="1"/>
     </row>
-    <row r="356" ht="14.25" hidden="1">
+    <row r="356" ht="14.25">
       <c r="C356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
@@ -19079,7 +19205,7 @@
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
     </row>
-    <row r="357" ht="14.25" hidden="1">
+    <row r="357" ht="14.25">
       <c r="C357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
@@ -19090,7 +19216,7 @@
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
     </row>
-    <row r="358" ht="14.25" hidden="1">
+    <row r="358" ht="14.25">
       <c r="C358" s="1"/>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
@@ -19101,7 +19227,7 @@
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
     </row>
-    <row r="359" ht="14.25" hidden="1">
+    <row r="359" ht="14.25">
       <c r="C359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
@@ -19112,7 +19238,7 @@
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
     </row>
-    <row r="360" ht="14.25" hidden="1">
+    <row r="360" ht="14.25">
       <c r="C360" s="1"/>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
@@ -19123,7 +19249,7 @@
       <c r="K360" s="1"/>
       <c r="L360" s="1"/>
     </row>
-    <row r="361" ht="14.25" hidden="1">
+    <row r="361" ht="14.25">
       <c r="C361" s="1"/>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
@@ -19134,7 +19260,7 @@
       <c r="K361" s="1"/>
       <c r="L361" s="1"/>
     </row>
-    <row r="362" ht="14.25" hidden="1">
+    <row r="362" ht="14.25">
       <c r="C362" s="1"/>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
@@ -19145,7 +19271,7 @@
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
     </row>
-    <row r="363" ht="14.25" hidden="1">
+    <row r="363" ht="14.25">
       <c r="C363" s="1"/>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
@@ -19156,7 +19282,7 @@
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
     </row>
-    <row r="364" ht="14.25" hidden="1">
+    <row r="364" ht="14.25">
       <c r="C364" s="1"/>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
@@ -19167,7 +19293,7 @@
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
     </row>
-    <row r="365" ht="14.25" hidden="1">
+    <row r="365" ht="14.25">
       <c r="C365" s="1"/>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
@@ -19178,7 +19304,7 @@
       <c r="K365" s="1"/>
       <c r="L365" s="1"/>
     </row>
-    <row r="366" ht="14.25" hidden="1">
+    <row r="366" ht="14.25">
       <c r="C366" s="1"/>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
@@ -19189,7 +19315,7 @@
       <c r="K366" s="1"/>
       <c r="L366" s="1"/>
     </row>
-    <row r="367" ht="14.25" hidden="1">
+    <row r="367" ht="14.25">
       <c r="C367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
@@ -19200,7 +19326,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" ht="14.25" hidden="1">
+    <row r="368" ht="14.25">
       <c r="C368" s="1"/>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
@@ -19211,7 +19337,7 @@
       <c r="K368" s="1"/>
       <c r="L368" s="1"/>
     </row>
-    <row r="369" ht="14.25" hidden="1">
+    <row r="369" ht="14.25">
       <c r="C369" s="1"/>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
@@ -19222,7 +19348,7 @@
       <c r="K369" s="1"/>
       <c r="L369" s="1"/>
     </row>
-    <row r="370" ht="14.25" hidden="1">
+    <row r="370" ht="14.25">
       <c r="C370" s="1"/>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
@@ -19233,7 +19359,7 @@
       <c r="K370" s="1"/>
       <c r="L370" s="1"/>
     </row>
-    <row r="371" ht="14.25" hidden="1">
+    <row r="371" ht="14.25">
       <c r="C371" s="1"/>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
@@ -19244,7 +19370,7 @@
       <c r="K371" s="1"/>
       <c r="L371" s="1"/>
     </row>
-    <row r="372" ht="14.25" hidden="1">
+    <row r="372" ht="14.25">
       <c r="C372" s="1"/>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
@@ -19255,7 +19381,7 @@
       <c r="K372" s="1"/>
       <c r="L372" s="1"/>
     </row>
-    <row r="373" ht="14.25" hidden="1">
+    <row r="373" ht="14.25">
       <c r="C373" s="1"/>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
@@ -19266,7 +19392,7 @@
       <c r="K373" s="1"/>
       <c r="L373" s="1"/>
     </row>
-    <row r="374" ht="14.25" hidden="1">
+    <row r="374" ht="14.25">
       <c r="C374" s="1"/>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
@@ -19277,7 +19403,7 @@
       <c r="K374" s="1"/>
       <c r="L374" s="1"/>
     </row>
-    <row r="375" ht="14.25" hidden="1">
+    <row r="375" ht="14.25">
       <c r="C375" s="1"/>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
@@ -19288,7 +19414,7 @@
       <c r="K375" s="1"/>
       <c r="L375" s="1"/>
     </row>
-    <row r="376" ht="14.25" hidden="1">
+    <row r="376" ht="14.25">
       <c r="C376" s="1"/>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
@@ -19299,7 +19425,7 @@
       <c r="K376" s="1"/>
       <c r="L376" s="1"/>
     </row>
-    <row r="377" ht="14.25" hidden="1">
+    <row r="377" ht="14.25">
       <c r="C377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
@@ -19310,7 +19436,7 @@
       <c r="K377" s="1"/>
       <c r="L377" s="1"/>
     </row>
-    <row r="378" ht="14.25" hidden="1">
+    <row r="378" ht="14.25">
       <c r="C378" s="1"/>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
@@ -19321,7 +19447,7 @@
       <c r="K378" s="1"/>
       <c r="L378" s="1"/>
     </row>
-    <row r="379" ht="14.25" hidden="1">
+    <row r="379" ht="14.25">
       <c r="C379" s="1"/>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
@@ -19332,7 +19458,7 @@
       <c r="K379" s="1"/>
       <c r="L379" s="1"/>
     </row>
-    <row r="380" ht="14.25" hidden="1">
+    <row r="380" ht="14.25">
       <c r="C380" s="1"/>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
@@ -19343,7 +19469,7 @@
       <c r="K380" s="1"/>
       <c r="L380" s="1"/>
     </row>
-    <row r="381" ht="14.25" hidden="1">
+    <row r="381" ht="14.25">
       <c r="C381" s="1"/>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
@@ -19354,7 +19480,7 @@
       <c r="K381" s="1"/>
       <c r="L381" s="1"/>
     </row>
-    <row r="382" ht="14.25" hidden="1">
+    <row r="382" ht="14.25">
       <c r="C382" s="1"/>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
@@ -19365,7 +19491,7 @@
       <c r="K382" s="1"/>
       <c r="L382" s="1"/>
     </row>
-    <row r="383" ht="14.25" hidden="1">
+    <row r="383" ht="14.25">
       <c r="C383" s="1"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
@@ -19376,7 +19502,7 @@
       <c r="K383" s="1"/>
       <c r="L383" s="1"/>
     </row>
-    <row r="384" ht="14.25" hidden="1">
+    <row r="384" ht="14.25">
       <c r="C384" s="1"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
@@ -19387,7 +19513,7 @@
       <c r="K384" s="1"/>
       <c r="L384" s="1"/>
     </row>
-    <row r="385" ht="14.25" hidden="1">
+    <row r="385" ht="14.25">
       <c r="C385" s="1"/>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
@@ -19398,7 +19524,7 @@
       <c r="K385" s="1"/>
       <c r="L385" s="1"/>
     </row>
-    <row r="386" ht="14.25" hidden="1">
+    <row r="386" ht="14.25">
       <c r="C386" s="1"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
@@ -19409,7 +19535,7 @@
       <c r="K386" s="1"/>
       <c r="L386" s="1"/>
     </row>
-    <row r="387" ht="14.25" hidden="1">
+    <row r="387" ht="14.25">
       <c r="C387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
@@ -19420,7 +19546,7 @@
       <c r="K387" s="1"/>
       <c r="L387" s="1"/>
     </row>
-    <row r="388" ht="14.25" hidden="1">
+    <row r="388" ht="14.25">
       <c r="C388" s="1"/>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
@@ -19431,7 +19557,7 @@
       <c r="K388" s="1"/>
       <c r="L388" s="1"/>
     </row>
-    <row r="389" ht="14.25" hidden="1">
+    <row r="389" ht="14.25">
       <c r="C389" s="1"/>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
@@ -19442,7 +19568,7 @@
       <c r="K389" s="1"/>
       <c r="L389" s="1"/>
     </row>
-    <row r="390" ht="14.25" hidden="1">
+    <row r="390" ht="14.25">
       <c r="C390" s="1"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
@@ -19453,7 +19579,7 @@
       <c r="K390" s="1"/>
       <c r="L390" s="1"/>
     </row>
-    <row r="391" ht="14.25" hidden="1">
+    <row r="391" ht="14.25">
       <c r="C391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
@@ -19464,7 +19590,7 @@
       <c r="K391" s="1"/>
       <c r="L391" s="1"/>
     </row>
-    <row r="392" ht="14.25" hidden="1">
+    <row r="392" ht="14.25">
       <c r="C392" s="1"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
@@ -19475,7 +19601,7 @@
       <c r="K392" s="1"/>
       <c r="L392" s="1"/>
     </row>
-    <row r="393" ht="14.25" hidden="1">
+    <row r="393" ht="14.25">
       <c r="C393" s="1"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
@@ -19486,7 +19612,7 @@
       <c r="K393" s="1"/>
       <c r="L393" s="1"/>
     </row>
-    <row r="394" ht="14.25" hidden="1">
+    <row r="394" ht="14.25">
       <c r="C394" s="1"/>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
@@ -19497,7 +19623,7 @@
       <c r="K394" s="1"/>
       <c r="L394" s="1"/>
     </row>
-    <row r="395" ht="14.25" hidden="1">
+    <row r="395" ht="14.25">
       <c r="C395" s="1"/>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
@@ -19508,7 +19634,7 @@
       <c r="K395" s="1"/>
       <c r="L395" s="1"/>
     </row>
-    <row r="396" ht="14.25" hidden="1">
+    <row r="396" ht="14.25">
       <c r="C396" s="1"/>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
@@ -19519,7 +19645,7 @@
       <c r="K396" s="1"/>
       <c r="L396" s="1"/>
     </row>
-    <row r="397" ht="14.25" hidden="1">
+    <row r="397" ht="14.25">
       <c r="C397" s="1"/>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
@@ -19530,7 +19656,7 @@
       <c r="K397" s="1"/>
       <c r="L397" s="1"/>
     </row>
-    <row r="398" ht="14.25" hidden="1">
+    <row r="398" ht="14.25">
       <c r="C398" s="1"/>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
@@ -19541,7 +19667,7 @@
       <c r="K398" s="1"/>
       <c r="L398" s="1"/>
     </row>
-    <row r="399" ht="14.25" hidden="1">
+    <row r="399" ht="14.25">
       <c r="C399" s="1"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
@@ -19552,7 +19678,7 @@
       <c r="K399" s="1"/>
       <c r="L399" s="1"/>
     </row>
-    <row r="400" ht="14.25" hidden="1">
+    <row r="400" ht="14.25">
       <c r="C400" s="1"/>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
@@ -19563,7 +19689,7 @@
       <c r="K400" s="1"/>
       <c r="L400" s="1"/>
     </row>
-    <row r="401" ht="14.25" hidden="1">
+    <row r="401" ht="14.25">
       <c r="C401" s="1"/>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
@@ -19574,7 +19700,7 @@
       <c r="K401" s="1"/>
       <c r="L401" s="1"/>
     </row>
-    <row r="402" ht="14.25" hidden="1">
+    <row r="402" ht="14.25">
       <c r="C402" s="1"/>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
@@ -19585,7 +19711,7 @@
       <c r="K402" s="1"/>
       <c r="L402" s="1"/>
     </row>
-    <row r="403" ht="14.25" hidden="1">
+    <row r="403" ht="14.25">
       <c r="C403" s="1"/>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
@@ -19596,7 +19722,7 @@
       <c r="K403" s="1"/>
       <c r="L403" s="1"/>
     </row>
-    <row r="404" ht="14.25" hidden="1">
+    <row r="404" ht="14.25">
       <c r="C404" s="1"/>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
@@ -19607,7 +19733,7 @@
       <c r="K404" s="1"/>
       <c r="L404" s="1"/>
     </row>
-    <row r="405" ht="14.25" hidden="1">
+    <row r="405" ht="14.25">
       <c r="C405" s="1"/>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
@@ -19618,7 +19744,7 @@
       <c r="K405" s="1"/>
       <c r="L405" s="1"/>
     </row>
-    <row r="406" ht="14.25" hidden="1">
+    <row r="406" ht="14.25">
       <c r="C406" s="1"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
@@ -19629,7 +19755,7 @@
       <c r="K406" s="1"/>
       <c r="L406" s="1"/>
     </row>
-    <row r="407" ht="14.25" hidden="1">
+    <row r="407" ht="14.25">
       <c r="C407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
@@ -19640,7 +19766,7 @@
       <c r="K407" s="1"/>
       <c r="L407" s="1"/>
     </row>
-    <row r="408" ht="14.25" hidden="1">
+    <row r="408" ht="14.25">
       <c r="C408" s="1"/>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
@@ -19651,7 +19777,7 @@
       <c r="K408" s="1"/>
       <c r="L408" s="1"/>
     </row>
-    <row r="409" ht="14.25" hidden="1">
+    <row r="409" ht="14.25">
       <c r="C409" s="1"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
@@ -19662,7 +19788,7 @@
       <c r="K409" s="1"/>
       <c r="L409" s="1"/>
     </row>
-    <row r="410" ht="14.25" hidden="1">
+    <row r="410" ht="14.25">
       <c r="C410" s="1"/>
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
@@ -19673,7 +19799,7 @@
       <c r="K410" s="1"/>
       <c r="L410" s="1"/>
     </row>
-    <row r="411" ht="14.25" hidden="1">
+    <row r="411" ht="14.25">
       <c r="C411" s="1"/>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
@@ -19684,7 +19810,7 @@
       <c r="K411" s="1"/>
       <c r="L411" s="1"/>
     </row>
-    <row r="412" ht="14.25" hidden="1">
+    <row r="412" ht="14.25">
       <c r="C412" s="1"/>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
@@ -19695,7 +19821,7 @@
       <c r="K412" s="1"/>
       <c r="L412" s="1"/>
     </row>
-    <row r="413" ht="14.25" hidden="1">
+    <row r="413" ht="14.25">
       <c r="C413" s="1"/>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
@@ -19706,7 +19832,7 @@
       <c r="K413" s="1"/>
       <c r="L413" s="1"/>
     </row>
-    <row r="414" ht="14.25" hidden="1">
+    <row r="414" ht="14.25">
       <c r="C414" s="1"/>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
@@ -19717,7 +19843,7 @@
       <c r="K414" s="1"/>
       <c r="L414" s="1"/>
     </row>
-    <row r="415" ht="14.25" hidden="1">
+    <row r="415" ht="14.25">
       <c r="C415" s="1"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
@@ -19728,7 +19854,7 @@
       <c r="K415" s="1"/>
       <c r="L415" s="1"/>
     </row>
-    <row r="416" ht="14.25" hidden="1">
+    <row r="416" ht="14.25">
       <c r="C416" s="1"/>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
@@ -19739,7 +19865,7 @@
       <c r="K416" s="1"/>
       <c r="L416" s="1"/>
     </row>
-    <row r="417" ht="14.25" hidden="1">
+    <row r="417" ht="14.25">
       <c r="C417" s="1"/>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
@@ -19750,7 +19876,7 @@
       <c r="K417" s="1"/>
       <c r="L417" s="1"/>
     </row>
-    <row r="418" ht="14.25" hidden="1">
+    <row r="418" ht="14.25">
       <c r="C418" s="1"/>
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
@@ -19761,7 +19887,7 @@
       <c r="K418" s="1"/>
       <c r="L418" s="1"/>
     </row>
-    <row r="419" ht="14.25" hidden="1">
+    <row r="419" ht="14.25">
       <c r="C419" s="1"/>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
@@ -19772,7 +19898,7 @@
       <c r="K419" s="1"/>
       <c r="L419" s="1"/>
     </row>
-    <row r="420" ht="14.25" hidden="1">
+    <row r="420" ht="14.25">
       <c r="C420" s="1"/>
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
@@ -19783,7 +19909,7 @@
       <c r="K420" s="1"/>
       <c r="L420" s="1"/>
     </row>
-    <row r="421" ht="14.25" hidden="1">
+    <row r="421" ht="14.25">
       <c r="C421" s="1"/>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
@@ -19794,7 +19920,7 @@
       <c r="K421" s="1"/>
       <c r="L421" s="1"/>
     </row>
-    <row r="422" ht="14.25" hidden="1">
+    <row r="422" ht="14.25">
       <c r="C422" s="1"/>
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
@@ -19805,7 +19931,7 @@
       <c r="K422" s="1"/>
       <c r="L422" s="1"/>
     </row>
-    <row r="423" ht="14.25" hidden="1">
+    <row r="423" ht="14.25">
       <c r="C423" s="1"/>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
@@ -19816,7 +19942,7 @@
       <c r="K423" s="1"/>
       <c r="L423" s="1"/>
     </row>
-    <row r="424" ht="14.25" hidden="1">
+    <row r="424" ht="14.25">
       <c r="C424" s="1"/>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
@@ -19827,7 +19953,7 @@
       <c r="K424" s="1"/>
       <c r="L424" s="1"/>
     </row>
-    <row r="425" ht="14.25" hidden="1">
+    <row r="425" ht="14.25">
       <c r="C425" s="1"/>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
@@ -19838,7 +19964,7 @@
       <c r="K425" s="1"/>
       <c r="L425" s="1"/>
     </row>
-    <row r="426" ht="14.25" hidden="1">
+    <row r="426" ht="14.25">
       <c r="C426" s="1"/>
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
@@ -19849,7 +19975,7 @@
       <c r="K426" s="1"/>
       <c r="L426" s="1"/>
     </row>
-    <row r="427" ht="14.25" hidden="1">
+    <row r="427" ht="14.25">
       <c r="C427" s="1"/>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
@@ -19860,7 +19986,7 @@
       <c r="K427" s="1"/>
       <c r="L427" s="1"/>
     </row>
-    <row r="428" ht="14.25" hidden="1">
+    <row r="428" ht="14.25">
       <c r="C428" s="1"/>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
@@ -19871,7 +19997,7 @@
       <c r="K428" s="1"/>
       <c r="L428" s="1"/>
     </row>
-    <row r="429" ht="14.25" hidden="1">
+    <row r="429" ht="14.25">
       <c r="C429" s="1"/>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
@@ -19882,7 +20008,7 @@
       <c r="K429" s="1"/>
       <c r="L429" s="1"/>
     </row>
-    <row r="430" ht="14.25" hidden="1">
+    <row r="430" ht="14.25">
       <c r="C430" s="1"/>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
@@ -19893,7 +20019,7 @@
       <c r="K430" s="1"/>
       <c r="L430" s="1"/>
     </row>
-    <row r="431" ht="14.25" hidden="1">
+    <row r="431" ht="14.25">
       <c r="C431" s="1"/>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
@@ -19904,7 +20030,7 @@
       <c r="K431" s="1"/>
       <c r="L431" s="1"/>
     </row>
-    <row r="432" ht="14.25" hidden="1">
+    <row r="432" ht="14.25">
       <c r="C432" s="1"/>
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
@@ -19915,7 +20041,7 @@
       <c r="K432" s="1"/>
       <c r="L432" s="1"/>
     </row>
-    <row r="433" ht="14.25" hidden="1">
+    <row r="433" ht="14.25">
       <c r="C433" s="1"/>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
@@ -19926,7 +20052,7 @@
       <c r="K433" s="1"/>
       <c r="L433" s="1"/>
     </row>
-    <row r="434" ht="14.25" hidden="1">
+    <row r="434" ht="14.25">
       <c r="C434" s="1"/>
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
@@ -19937,7 +20063,7 @@
       <c r="K434" s="1"/>
       <c r="L434" s="1"/>
     </row>
-    <row r="435" ht="14.25" hidden="1">
+    <row r="435" ht="14.25">
       <c r="C435" s="1"/>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
@@ -19948,7 +20074,7 @@
       <c r="K435" s="1"/>
       <c r="L435" s="1"/>
     </row>
-    <row r="436" ht="14.25" hidden="1">
+    <row r="436" ht="14.25">
       <c r="C436" s="1"/>
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
@@ -19959,7 +20085,7 @@
       <c r="K436" s="1"/>
       <c r="L436" s="1"/>
     </row>
-    <row r="437" ht="14.25" hidden="1">
+    <row r="437" ht="14.25">
       <c r="C437" s="1"/>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
@@ -19970,7 +20096,7 @@
       <c r="K437" s="1"/>
       <c r="L437" s="1"/>
     </row>
-    <row r="438" ht="14.25" hidden="1">
+    <row r="438" ht="14.25">
       <c r="C438" s="1"/>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
@@ -19981,7 +20107,7 @@
       <c r="K438" s="1"/>
       <c r="L438" s="1"/>
     </row>
-    <row r="439" ht="14.25" hidden="1">
+    <row r="439" ht="14.25">
       <c r="C439" s="1"/>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
@@ -19992,7 +20118,7 @@
       <c r="K439" s="1"/>
       <c r="L439" s="1"/>
     </row>
-    <row r="440" ht="14.25" hidden="1">
+    <row r="440" ht="14.25">
       <c r="C440" s="1"/>
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
@@ -20003,7 +20129,7 @@
       <c r="K440" s="1"/>
       <c r="L440" s="1"/>
     </row>
-    <row r="441" ht="14.25" hidden="1">
+    <row r="441" ht="14.25">
       <c r="C441" s="1"/>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
@@ -20014,7 +20140,7 @@
       <c r="K441" s="1"/>
       <c r="L441" s="1"/>
     </row>
-    <row r="442" ht="14.25" hidden="1">
+    <row r="442" ht="14.25">
       <c r="C442" s="1"/>
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
@@ -20025,7 +20151,7 @@
       <c r="K442" s="1"/>
       <c r="L442" s="1"/>
     </row>
-    <row r="443" ht="14.25" hidden="1">
+    <row r="443" ht="14.25">
       <c r="C443" s="1"/>
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
@@ -20036,7 +20162,7 @@
       <c r="K443" s="1"/>
       <c r="L443" s="1"/>
     </row>
-    <row r="444" ht="14.25" hidden="1">
+    <row r="444" ht="14.25">
       <c r="C444" s="1"/>
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
@@ -20059,10 +20185,10 @@
       <c r="L445" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L444">
+  <autoFilter ref="A1:L241">
     <filterColumn colId="8">
       <filters>
-        <filter val="21"/>
+        <filter val="20"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -20132,7 +20258,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>18</v>
@@ -20161,13 +20287,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>15</v>
@@ -20182,7 +20308,7 @@
         <v>487</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" ht="14.25" hidden="1">
@@ -20190,13 +20316,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>149</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>15</v>
@@ -20211,7 +20337,7 @@
         <v>1319</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" ht="14.25" hidden="1">
@@ -20219,7 +20345,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>21</v>
@@ -20248,13 +20374,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>149</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>15</v>
@@ -20269,7 +20395,7 @@
         <v>2081</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" ht="14.25" hidden="1">
@@ -20277,13 +20403,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>15</v>
@@ -20298,7 +20424,7 @@
         <v>2253</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" ht="14.25" hidden="1">
@@ -20306,13 +20432,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>15</v>
@@ -20327,7 +20453,7 @@
         <v>2281</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" ht="14.25" hidden="1">
@@ -20335,7 +20461,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>24</v>
@@ -20364,7 +20490,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>21</v>
@@ -20393,7 +20519,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>18</v>
@@ -20422,7 +20548,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>21</v>
@@ -20451,7 +20577,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>18</v>
@@ -20480,7 +20606,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>18</v>
@@ -20509,13 +20635,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>149</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>28</v>
@@ -20530,7 +20656,7 @@
         <v>3468</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" ht="14.25" hidden="1">
@@ -20538,7 +20664,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>36</v>
@@ -20567,13 +20693,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>28</v>
@@ -20588,7 +20714,7 @@
         <v>3607</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" ht="14.25" hidden="1">
@@ -20596,7 +20722,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>21</v>
@@ -20625,13 +20751,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>40</v>
@@ -20646,7 +20772,7 @@
         <v>5844</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" ht="14.25" hidden="1">
@@ -20654,7 +20780,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>36</v>
@@ -20683,7 +20809,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>21</v>
@@ -20712,13 +20838,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>43</v>
@@ -20733,7 +20859,7 @@
         <v>7489</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" ht="14.25" hidden="1">
@@ -20741,7 +20867,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>24</v>
@@ -20770,7 +20896,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>49</v>
@@ -20799,7 +20925,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>18</v>
@@ -20828,7 +20954,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>18</v>
@@ -20857,7 +20983,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>36</v>
@@ -20886,7 +21012,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>18</v>
@@ -20915,7 +21041,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -20944,7 +21070,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>18</v>
@@ -20973,7 +21099,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>24</v>
@@ -21002,7 +21128,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>21</v>
@@ -21031,7 +21157,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>24</v>
@@ -21060,7 +21186,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>21</v>
@@ -21089,7 +21215,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>21</v>
@@ -21118,7 +21244,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>18</v>
@@ -21147,7 +21273,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>21</v>
@@ -21176,7 +21302,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>24</v>
@@ -21205,7 +21331,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>24</v>
@@ -21234,7 +21360,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>21</v>
@@ -21263,13 +21389,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>70</v>
@@ -21284,7 +21410,7 @@
         <v>14755</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="42" ht="14.25" hidden="1">
@@ -21292,7 +21418,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>24</v>
@@ -21321,7 +21447,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>49</v>
@@ -21350,7 +21476,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>89</v>
@@ -21379,7 +21505,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>24</v>
@@ -21408,7 +21534,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>24</v>
@@ -21437,7 +21563,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>18</v>
@@ -21466,13 +21592,13 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>104</v>
@@ -21487,7 +21613,7 @@
         <v>21436</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="49" ht="14.25" hidden="1">
@@ -21495,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>24</v>
@@ -21524,13 +21650,13 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>107</v>
@@ -21545,7 +21671,7 @@
         <v>22287</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="51" ht="14.25" hidden="1">
@@ -21553,7 +21679,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>89</v>
@@ -21582,7 +21708,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>49</v>
@@ -21611,7 +21737,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>89</v>
@@ -21640,7 +21766,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>36</v>
@@ -21669,7 +21795,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>36</v>
@@ -21698,7 +21824,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>36</v>
@@ -21727,7 +21853,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>18</v>
@@ -21756,7 +21882,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>18</v>
@@ -21785,7 +21911,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>18</v>
@@ -21814,7 +21940,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>36</v>
@@ -21843,7 +21969,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>18</v>
@@ -21872,7 +21998,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>24</v>
@@ -21901,7 +22027,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>24</v>
@@ -21930,7 +22056,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>18</v>
@@ -21959,7 +22085,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>18</v>
@@ -21988,7 +22114,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>18</v>
@@ -22017,7 +22143,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>18</v>
@@ -22046,13 +22172,13 @@
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>147</v>
@@ -22067,7 +22193,7 @@
         <v>31096</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="69" ht="14.25" hidden="1">
@@ -22075,7 +22201,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>49</v>
@@ -22104,13 +22230,13 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>147</v>
@@ -22125,7 +22251,7 @@
         <v>31752</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="71" ht="14.25" hidden="1">
@@ -22133,16 +22259,16 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I71" s="3">
         <v>16</v>
@@ -22154,7 +22280,7 @@
         <v>33315</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="72" ht="14.25" hidden="1">
@@ -22162,16 +22288,16 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I72" s="3">
         <v>16</v>
@@ -22183,7 +22309,7 @@
         <v>33397</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="73" ht="14.25" hidden="1">
@@ -22191,16 +22317,16 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I73" s="3">
         <v>16</v>
@@ -22212,7 +22338,7 @@
         <v>34009</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="74" ht="14.25" hidden="1">
@@ -22220,7 +22346,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>18</v>
@@ -22249,13 +22375,13 @@
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>159</v>
@@ -22270,7 +22396,7 @@
         <v>36329</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76" ht="14.25" hidden="1">
@@ -22278,13 +22404,13 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>149</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>159</v>
@@ -22299,7 +22425,7 @@
         <v>36706</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="77" ht="14.25" hidden="1">
@@ -22307,13 +22433,13 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>159</v>
@@ -22328,7 +22454,7 @@
         <v>36767</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="78" ht="14.25" hidden="1">
@@ -22336,7 +22462,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>18</v>
@@ -22365,7 +22491,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>24</v>
@@ -22394,13 +22520,13 @@
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>171</v>
@@ -22415,7 +22541,7 @@
         <v>37716</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="81" ht="14.25" hidden="1">
@@ -22423,16 +22549,16 @@
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I81" s="3">
         <v>17</v>
@@ -22444,7 +22570,7 @@
         <v>38032</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="82" ht="14.25" hidden="1">
@@ -22452,16 +22578,16 @@
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I82" s="3">
         <v>17</v>
@@ -22473,7 +22599,7 @@
         <v>38225</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83" ht="14.25" hidden="1">
@@ -22481,16 +22607,16 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I83" s="3">
         <v>17</v>
@@ -22502,7 +22628,7 @@
         <v>38385</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="84" ht="14.25" hidden="1">
@@ -22510,7 +22636,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>18</v>
@@ -22539,7 +22665,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>13</v>
@@ -22568,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>21</v>
@@ -22597,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>18</v>
@@ -22626,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>21</v>
@@ -22655,7 +22781,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>18</v>
@@ -22684,7 +22810,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>18</v>
@@ -22713,7 +22839,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>18</v>
@@ -22742,7 +22868,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>201</v>
@@ -22771,13 +22897,13 @@
         <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>199</v>
@@ -22792,7 +22918,7 @@
         <v>45546</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="94" ht="14.25" hidden="1">
@@ -22800,7 +22926,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>18</v>
@@ -22829,13 +22955,13 @@
         <v>1</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>205</v>
@@ -22850,7 +22976,7 @@
         <v>45827</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="96" ht="14.25" hidden="1">
@@ -22858,7 +22984,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>18</v>
@@ -22887,7 +23013,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>21</v>
@@ -22916,7 +23042,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>21</v>
@@ -22945,13 +23071,13 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>219</v>
@@ -22966,7 +23092,7 @@
         <v>47711</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100" ht="14.25" hidden="1">
@@ -22974,7 +23100,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>49</v>
@@ -23003,7 +23129,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>49</v>
@@ -23032,7 +23158,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>18</v>
@@ -23061,7 +23187,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>36</v>
@@ -23090,7 +23216,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>18</v>
@@ -23119,13 +23245,13 @@
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>230</v>
@@ -23140,7 +23266,7 @@
         <v>49859</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="106" ht="14.25" hidden="1">
@@ -23148,7 +23274,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>21</v>
@@ -23177,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>18</v>
@@ -23206,7 +23332,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>21</v>
@@ -23235,16 +23361,16 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>145</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I109" s="3">
         <v>19</v>
@@ -23256,7 +23382,7 @@
         <v>51358</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="110" ht="14.25" hidden="1">
@@ -23264,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>36</v>
@@ -23293,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>18</v>
@@ -23322,7 +23448,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>18</v>
@@ -23351,7 +23477,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>18</v>
@@ -23380,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>18</v>
@@ -23409,7 +23535,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>21</v>
@@ -23438,7 +23564,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>18</v>
@@ -23467,7 +23593,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>18</v>
@@ -23496,7 +23622,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>18</v>
@@ -23525,7 +23651,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>21</v>
@@ -23554,13 +23680,13 @@
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>263</v>
@@ -23575,7 +23701,7 @@
         <v>56578</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="121" ht="14.25" hidden="1">
@@ -23583,13 +23709,13 @@
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>268</v>
@@ -23604,7 +23730,7 @@
         <v>57303</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="122" ht="14.25" hidden="1">
@@ -23612,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>36</v>
@@ -23641,7 +23767,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>36</v>
@@ -23670,7 +23796,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>49</v>
@@ -23699,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>13</v>
@@ -23728,7 +23854,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>18</v>
@@ -23757,7 +23883,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>18</v>
@@ -23786,7 +23912,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>49</v>
@@ -23815,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>36</v>
@@ -23844,7 +23970,7 @@
         <v>0</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>24</v>
@@ -23873,7 +23999,7 @@
         <v>0</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>36</v>
@@ -23902,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>24</v>
@@ -23926,12 +24052,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="133" ht="14.25" hidden="1">
+    <row r="133" ht="14.25">
       <c r="A133" s="2">
         <v>0</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>18</v>
@@ -23955,12 +24081,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="134" ht="14.25" hidden="1">
+    <row r="134" ht="14.25">
       <c r="A134" s="2">
         <v>0</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>24</v>
@@ -23984,12 +24110,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" ht="14.25" hidden="1">
+    <row r="135" ht="14.25">
       <c r="A135" s="2">
         <v>0</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>18</v>
@@ -24013,12 +24139,12 @@
         <v>303</v>
       </c>
     </row>
-    <row r="136" ht="14.25" hidden="1">
+    <row r="136" ht="14.25">
       <c r="A136" s="2">
         <v>0</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>18</v>
@@ -24042,12 +24168,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="137" ht="14.25" hidden="1">
+    <row r="137" ht="14.25">
       <c r="A137" s="2">
         <v>0</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>24</v>
@@ -24071,12 +24197,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="138" ht="14.25" hidden="1">
+    <row r="138" ht="14.25">
       <c r="A138" s="2">
         <v>0</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>18</v>
@@ -24100,12 +24226,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="139" ht="14.25" hidden="1">
+    <row r="139" ht="14.25">
       <c r="A139" s="2">
         <v>0</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>18</v>
@@ -24129,12 +24255,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="140" ht="14.25" hidden="1">
+    <row r="140" ht="14.25">
       <c r="A140" s="2">
         <v>0</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>36</v>
@@ -24158,12 +24284,12 @@
         <v>314</v>
       </c>
     </row>
-    <row r="141" ht="14.25" hidden="1">
+    <row r="141" ht="14.25">
       <c r="A141" s="2">
         <v>0</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>18</v>
@@ -24187,12 +24313,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="142" ht="14.25" hidden="1">
+    <row r="142" ht="14.25">
       <c r="A142" s="2">
         <v>0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>18</v>
@@ -24216,12 +24342,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="143" ht="14.25" hidden="1">
+    <row r="143" ht="14.25">
       <c r="A143" s="2">
         <v>0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>18</v>
@@ -24245,12 +24371,12 @@
         <v>326</v>
       </c>
     </row>
-    <row r="144" ht="14.25" hidden="1">
+    <row r="144" ht="14.25">
       <c r="A144" s="2">
         <v>0</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>18</v>
@@ -24274,12 +24400,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="145" ht="14.25" hidden="1">
+    <row r="145" ht="14.25">
       <c r="A145" s="2">
         <v>0</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>18</v>
@@ -24303,12 +24429,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="146" ht="14.25" hidden="1">
+    <row r="146" ht="14.25">
       <c r="A146" s="2">
         <v>0</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>24</v>
@@ -24332,12 +24458,12 @@
         <v>332</v>
       </c>
     </row>
-    <row r="147" ht="14.25" hidden="1">
+    <row r="147" ht="14.25">
       <c r="A147" s="2">
         <v>0</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>18</v>
@@ -24361,12 +24487,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="148" ht="14.25" hidden="1">
+    <row r="148" ht="14.25">
       <c r="A148" s="2">
         <v>0</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>18</v>
@@ -24390,12 +24516,12 @@
         <v>337</v>
       </c>
     </row>
-    <row r="149" ht="14.25" hidden="1">
+    <row r="149" ht="14.25">
       <c r="A149" s="2">
         <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>18</v>
@@ -24419,12 +24545,12 @@
         <v>345</v>
       </c>
     </row>
-    <row r="150" ht="14.25" hidden="1">
+    <row r="150" ht="14.25">
       <c r="A150" s="2">
         <v>0</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>21</v>
@@ -24448,12 +24574,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="151" ht="14.25" hidden="1">
+    <row r="151" ht="14.25">
       <c r="A151" s="2">
         <v>0</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>18</v>
@@ -24477,12 +24603,12 @@
         <v>351</v>
       </c>
     </row>
-    <row r="152" ht="14.25" hidden="1">
+    <row r="152" ht="14.25">
       <c r="A152" s="2">
         <v>0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>36</v>
@@ -24506,12 +24632,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="153" ht="14.25" hidden="1">
+    <row r="153" ht="14.25">
       <c r="A153" s="2">
         <v>0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>49</v>
@@ -24535,12 +24661,12 @@
         <v>359</v>
       </c>
     </row>
-    <row r="154" ht="14.25" hidden="1">
+    <row r="154" ht="14.25">
       <c r="A154" s="2">
         <v>0</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>36</v>
@@ -24564,12 +24690,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="155" ht="14.25" hidden="1">
+    <row r="155" ht="14.25">
       <c r="A155" s="2">
         <v>0</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>49</v>
@@ -24593,12 +24719,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="156" ht="14.25" hidden="1">
+    <row r="156" ht="14.25">
       <c r="A156" s="2">
         <v>0</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>36</v>
@@ -24622,12 +24748,12 @@
         <v>373</v>
       </c>
     </row>
-    <row r="157" ht="14.25" hidden="1">
+    <row r="157" ht="14.25">
       <c r="A157" s="2">
         <v>0</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>36</v>
@@ -24651,18 +24777,18 @@
         <v>377</v>
       </c>
     </row>
-    <row r="158" ht="14.25" hidden="1">
+    <row r="158" ht="14.25">
       <c r="A158" s="2">
         <v>1</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>334</v>
@@ -24677,15 +24803,15 @@
         <v>65023</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="159" ht="14.25" hidden="1">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="159" ht="14.25">
       <c r="A159" s="2">
         <v>0</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>89</v>
@@ -24709,12 +24835,12 @@
         <v>379</v>
       </c>
     </row>
-    <row r="160" ht="14.25" hidden="1">
+    <row r="160" ht="14.25">
       <c r="A160" s="2">
         <v>0</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>18</v>
@@ -24738,12 +24864,12 @@
         <v>382</v>
       </c>
     </row>
-    <row r="161" ht="14.25" hidden="1">
+    <row r="161" ht="14.25">
       <c r="A161" s="2">
         <v>0</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>21</v>
@@ -24767,12 +24893,12 @@
         <v>384</v>
       </c>
     </row>
-    <row r="162" ht="14.25" hidden="1">
+    <row r="162" ht="14.25">
       <c r="A162" s="2">
         <v>0</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>18</v>
@@ -24796,12 +24922,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="163" ht="14.25" hidden="1">
+    <row r="163" ht="14.25">
       <c r="A163" s="2">
         <v>0</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>21</v>
@@ -24825,12 +24951,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="164" ht="14.25" hidden="1">
+    <row r="164" ht="14.25">
       <c r="A164" s="2">
         <v>0</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>24</v>
@@ -24854,18 +24980,18 @@
         <v>390</v>
       </c>
     </row>
-    <row r="165" ht="14.25" hidden="1">
+    <row r="165" ht="14.25">
       <c r="A165" s="2">
         <v>1</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H165" s="3" t="s">
         <v>381</v>
@@ -24880,15 +25006,15 @@
         <v>65234</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="166" ht="14.25" hidden="1">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="166" ht="14.25">
       <c r="A166" s="2">
         <v>0</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>18</v>
@@ -24912,12 +25038,12 @@
         <v>394</v>
       </c>
     </row>
-    <row r="167" ht="14.25" hidden="1">
+    <row r="167" ht="14.25">
       <c r="A167" s="2">
         <v>0</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>18</v>
@@ -24941,12 +25067,12 @@
         <v>394</v>
       </c>
     </row>
-    <row r="168" ht="14.25" hidden="1">
+    <row r="168" ht="14.25">
       <c r="A168" s="2">
         <v>0</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>24</v>
@@ -24970,12 +25096,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="169" ht="14.25" hidden="1">
+    <row r="169" ht="14.25">
       <c r="A169" s="2">
         <v>0</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>24</v>
@@ -24999,12 +25125,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="170" ht="14.25" hidden="1">
+    <row r="170" ht="14.25">
       <c r="A170" s="2">
         <v>0</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>24</v>
@@ -25028,18 +25154,18 @@
         <v>403</v>
       </c>
     </row>
-    <row r="171" ht="14.25" hidden="1">
+    <row r="171" ht="14.25">
       <c r="A171" s="2">
         <v>1</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>149</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H171" s="3" t="s">
         <v>381</v>
@@ -25054,15 +25180,15 @@
         <v>65699</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="172" ht="14.25" hidden="1">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25">
       <c r="A172" s="2">
         <v>0</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>21</v>
@@ -25086,12 +25212,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="173" ht="14.25" hidden="1">
+    <row r="173" ht="14.25">
       <c r="A173" s="2">
         <v>0</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>24</v>
@@ -25115,12 +25241,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="174" ht="14.25" hidden="1">
+    <row r="174" ht="14.25">
       <c r="A174" s="2">
         <v>0</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>21</v>
@@ -25144,12 +25270,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="175" ht="14.25" hidden="1">
+    <row r="175" ht="14.25">
       <c r="A175" s="2">
         <v>0</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>18</v>
@@ -25173,12 +25299,12 @@
         <v>411</v>
       </c>
     </row>
-    <row r="176" ht="14.25" hidden="1">
+    <row r="176" ht="14.25">
       <c r="A176" s="2">
         <v>0</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>18</v>
@@ -25202,12 +25328,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="177" ht="14.25" hidden="1">
+    <row r="177" ht="14.25">
       <c r="A177" s="2">
         <v>0</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>24</v>
@@ -25231,12 +25357,12 @@
         <v>415</v>
       </c>
     </row>
-    <row r="178" ht="14.25" hidden="1">
+    <row r="178" ht="14.25">
       <c r="A178" s="2">
         <v>0</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>24</v>
@@ -25260,12 +25386,12 @@
         <v>417</v>
       </c>
     </row>
-    <row r="179" ht="14.25" hidden="1">
+    <row r="179" ht="14.25">
       <c r="A179" s="2">
         <v>0</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>21</v>
@@ -25289,12 +25415,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="180" ht="14.25" hidden="1">
+    <row r="180" ht="14.25">
       <c r="A180" s="2">
         <v>0</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>18</v>
@@ -25318,12 +25444,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="181" ht="14.25" hidden="1">
+    <row r="181" ht="14.25">
       <c r="A181" s="2">
         <v>0</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>49</v>
@@ -25347,12 +25473,12 @@
         <v>438</v>
       </c>
     </row>
-    <row r="182" ht="14.25" hidden="1">
+    <row r="182" ht="14.25">
       <c r="A182" s="2">
         <v>0</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>18</v>
@@ -25376,12 +25502,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="183" ht="14.25" hidden="1">
+    <row r="183" ht="14.25">
       <c r="A183" s="2">
         <v>0</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>18</v>
@@ -25405,12 +25531,12 @@
         <v>451</v>
       </c>
     </row>
-    <row r="184" ht="14.25" hidden="1">
+    <row r="184" ht="14.25">
       <c r="A184" s="2">
         <v>0</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>49</v>
@@ -25434,12 +25560,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="185" ht="14.25" hidden="1">
+    <row r="185" ht="14.25">
       <c r="A185" s="2">
         <v>0</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>49</v>
@@ -25463,12 +25589,12 @@
         <v>455</v>
       </c>
     </row>
-    <row r="186" ht="14.25" hidden="1">
+    <row r="186" ht="14.25">
       <c r="A186" s="2">
         <v>0</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>18</v>
@@ -25492,12 +25618,12 @@
         <v>457</v>
       </c>
     </row>
-    <row r="187" ht="14.25" hidden="1">
+    <row r="187" ht="14.25">
       <c r="A187" s="2">
         <v>0</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>49</v>
@@ -25521,12 +25647,12 @@
         <v>459</v>
       </c>
     </row>
-    <row r="188" ht="14.25" hidden="1">
+    <row r="188" ht="14.25">
       <c r="A188" s="2">
         <v>0</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>18</v>
@@ -25550,12 +25676,12 @@
         <v>461</v>
       </c>
     </row>
-    <row r="189" ht="14.25" hidden="1">
+    <row r="189" ht="14.25">
       <c r="A189" s="2">
         <v>0</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>18</v>
@@ -25579,7 +25705,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="190" ht="14.25">
+    <row r="190" ht="14.25" hidden="1">
       <c r="A190" s="2">
         <v>0</v>
       </c>
@@ -25587,7 +25713,7 @@
         <v>0</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -25617,7 +25743,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="191" ht="14.25">
+    <row r="191" ht="14.25" hidden="1">
       <c r="A191" s="2">
         <v>0</v>
       </c>
@@ -25625,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -25655,12 +25781,21 @@
         <v>476</v>
       </c>
     </row>
-    <row r="192" ht="14.25">
+    <row r="192" ht="14.25" hidden="1">
       <c r="A192" s="2">
         <v>0</v>
       </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
       <c r="C192" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>464</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>18</v>
@@ -25684,18 +25819,27 @@
         <v>480</v>
       </c>
     </row>
-    <row r="193" ht="14.25">
+    <row r="193" ht="14.25" hidden="1">
       <c r="A193" s="2">
         <v>0</v>
       </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
       <c r="C193" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>481</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>466</v>
@@ -25710,21 +25854,30 @@
         <v>70902</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="194" ht="14.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="194" ht="14.25" hidden="1">
       <c r="A194" s="2">
         <v>0</v>
       </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
       <c r="C194" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>464</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>466</v>
@@ -25739,24 +25892,33 @@
         <v>71295</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="195" ht="14.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="195" ht="14.25" hidden="1">
       <c r="A195" s="2">
         <v>0</v>
       </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
       <c r="C195" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>470</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I195" s="3">
         <v>21</v>
@@ -25768,24 +25930,33 @@
         <v>71917</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="196" ht="14.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="196" ht="14.25" hidden="1">
       <c r="A196" s="2">
         <v>0</v>
       </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
       <c r="C196" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>464</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I196" s="3">
         <v>21</v>
@@ -25797,24 +25968,33 @@
         <v>71950</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="197" ht="14.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="197" ht="14.25" hidden="1">
       <c r="A197" s="2">
         <v>0</v>
       </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
       <c r="C197" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>464</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I197" s="3">
         <v>21</v>
@@ -25826,24 +26006,33 @@
         <v>72158</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="198" ht="14.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="198" ht="14.25" hidden="1">
       <c r="A198" s="2">
         <v>0</v>
       </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
       <c r="C198" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>470</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I198" s="3">
         <v>21</v>
@@ -25855,24 +26044,33 @@
         <v>72212</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="199" ht="14.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="199" ht="14.25" hidden="1">
       <c r="A199" s="2">
         <v>0</v>
       </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
       <c r="C199" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>464</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I199" s="3">
         <v>21</v>
@@ -25884,24 +26082,33 @@
         <v>72269</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="200" ht="14.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="200" ht="14.25" hidden="1">
       <c r="A200" s="2">
         <v>0</v>
       </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
       <c r="C200" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>470</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I200" s="3">
         <v>21</v>
@@ -25913,24 +26120,33 @@
         <v>72541</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="201" ht="14.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="201" ht="14.25" hidden="1">
       <c r="A201" s="2">
         <v>0</v>
       </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
       <c r="C201" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>464</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I201" s="3">
         <v>21</v>
@@ -25942,24 +26158,33 @@
         <v>72561</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="202" ht="14.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="202" ht="14.25" hidden="1">
       <c r="A202" s="2">
         <v>0</v>
       </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
       <c r="C202" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>470</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I202" s="3">
         <v>21</v>
@@ -25971,24 +26196,33 @@
         <v>72653</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="203" ht="14.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="203" ht="14.25" hidden="1">
       <c r="A203" s="2">
         <v>0</v>
       </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
       <c r="C203" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203" t="s">
+        <v>464</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I203" s="3">
         <v>21</v>
@@ -26000,24 +26234,33 @@
         <v>72871</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="204" ht="14.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="204" ht="14.25" hidden="1">
       <c r="A204" s="2">
         <v>0</v>
       </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
       <c r="C204" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204" t="s">
+        <v>470</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I204" s="3">
         <v>21</v>
@@ -26029,14 +26272,14 @@
         <v>72982</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L204">
     <filterColumn colId="8">
       <filters>
-        <filter val="21"/>
+        <filter val="20"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -26075,16 +26318,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>587</v>
@@ -26487,26 +26730,26 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7">
         <f>(C18/D18)*100</f>
-        <v>46.153846153846153</v>
+        <v>75</v>
       </c>
       <c r="I18" s="6">
         <v>21</v>
       </c>
       <c r="J18">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N18" s="7">
         <f>K18/L18*100</f>
@@ -26518,33 +26761,33 @@
         <v>592</v>
       </c>
       <c r="B19">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C19">
         <v>71</v>
       </c>
       <c r="D19">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F19" s="7">
         <f>(C19/D19)*100</f>
-        <v>29.707112970711297</v>
+        <v>31.004366812227076</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>592</v>
       </c>
       <c r="J19">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K19">
         <v>34</v>
       </c>
       <c r="L19">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="N19" s="7">
         <f>K19/L19*100</f>
-        <v>16.915422885572141</v>
+        <v>17.616580310880828</v>
       </c>
     </row>
   </sheetData>

--- a/IcePaHC/IcePaHC - á.xlsx
+++ b/IcePaHC/IcePaHC - á.xlsx
@@ -979,12 +979,18 @@
     <t xml:space="preserve">Það lá við að hann væri byrjaður á að þylja upp verðskrána</t>
   </si>
   <si>
+    <t>tht</t>
+  </si>
+  <si>
     <t xml:space="preserve">á því að verzlunarstjórinn mundi ef til vill vera að draga dár að sér</t>
   </si>
   <si>
     <t xml:space="preserve">En hann áttaði sig þó á því að verzlunarstjórinn mundi ef til vill vera að draga dár að sér</t>
   </si>
   <si>
+    <t>inf</t>
+  </si>
+  <si>
     <t xml:space="preserve">á því að koma svo ár sinni fyrir borð að landar þeirra gerðu þeim ekki ónæði</t>
   </si>
   <si>
@@ -1096,6 +1102,9 @@
     <t xml:space="preserve">Hvernig stendur á því sagði prestur að þó að eg hefði verið þarna allan daginn hefði mér fráleitt nokkurn tíma dottið í hug að gera það sem þér gerðuð ?</t>
   </si>
   <si>
+    <t>que</t>
+  </si>
+  <si>
     <t xml:space="preserve">á því hvort yfirdómari var eða hvort hann var ekki að spottast að honum</t>
   </si>
   <si>
@@ -1420,9 +1429,6 @@
     <t xml:space="preserve">Karlmenn skiptust á að hrista tening og sleppa</t>
   </si>
   <si>
-    <t>inf</t>
-  </si>
-  <si>
     <t xml:space="preserve">á að smassa og lauma og vippa</t>
   </si>
   <si>
@@ -1438,9 +1444,6 @@
     <t xml:space="preserve">Og svo stakk ég upp á því að fylla upp í götin með húsum í anda íslenskrar hefðar í arkitektúr það er að segja að hafa heildarsvipinn sundurgerðarlegan og svolítið skrautlegan</t>
   </si>
   <si>
-    <t>tht</t>
-  </si>
-  <si>
     <t xml:space="preserve">á því að hún sé með hvítan drengjakoll og sé hæglát eða einræn bláeyg grannvaxin feimin tónelsk</t>
   </si>
   <si>
@@ -1469,9 +1472,6 @@
   </si>
   <si>
     <t xml:space="preserve">og horfði út í buskann á meðan ég hlustaði á pabba hlusta á Wild Man Blues</t>
-  </si>
-  <si>
-    <t>que</t>
   </si>
   <si>
     <t xml:space="preserve">á hvað yrði úr</t>
@@ -2907,16 +2907,17 @@
       </sharedItems>
     </cacheField>
     <cacheField name="extr">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="3">
         <m/>
         <n v="0"/>
+        <n v="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="type">
       <sharedItems containsBlank="1" count="4">
         <m/>
+        <s v="tht"/>
         <s v="inf"/>
-        <s v="tht"/>
         <s v="que"/>
       </sharedItems>
     </cacheField>
@@ -2978,8 +2979,8 @@
     <cacheField name="valid">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="3">
         <m/>
+        <n v="1"/>
         <n v="0"/>
-        <n v="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="case">
@@ -2989,8 +2990,9 @@
       </sharedItems>
     </cacheField>
     <cacheField name="extr">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="3">
         <m/>
+        <n v="1"/>
         <n v="0"/>
       </sharedItems>
     </cacheField>
@@ -2998,8 +3000,8 @@
       <sharedItems containsBlank="1" count="4">
         <m/>
         <s v="inf"/>
+        <s v="tht"/>
         <s v="que"/>
-        <s v="tht"/>
       </sharedItems>
     </cacheField>
     <cacheField name="label">
@@ -4966,10 +4968,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að verzlunarstjórinn mundi ef til vill vera að draga dár að sér"/>
     <s v="leysing"/>
@@ -4980,10 +4982,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <s v="IP-INF"/>
     <s v="á því að koma svo ár sinni fyrir borð að landar þeirra gerðu þeim ekki ónæði"/>
     <s v="leysing"/>
@@ -5008,10 +5010,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að hann fengi viðskiftamenn á Voginum"/>
     <s v="leysing"/>
@@ -5106,10 +5108,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að hann var með miklu meiri heilabrot en aðrir sem hann hafði kynst"/>
     <s v="ofurefli"/>
@@ -5120,10 +5122,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að hann var alt af að efast um eitthvað sem aðrir menn taka gilt"/>
     <s v="ofurefli"/>
@@ -5134,10 +5136,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að hún bæri höfuðið svona"/>
     <s v="ofurefli"/>
@@ -5176,10 +5178,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að Sigríður gat alt af verið með glöðu bragði hún sem átti svo dapurlegt heimili og við svo þröng kjör að búa"/>
     <s v="ofurefli"/>
@@ -5190,10 +5192,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að Sigríður var aldrei með neina óánægju né óþreyju né eftirlanganir eftir því sem ekki var kostur á að veita sér"/>
     <s v="ofurefli"/>
@@ -5232,10 +5234,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="CP-THT-PRN"/>
     <s v="á því"/>
     <s v="ofurefli"/>
@@ -5246,10 +5248,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
     <s v="CP-QUE-PRN"/>
     <s v="á því hvort yfirdómari var eða hvort hann var ekki að spottast að honum"/>
     <s v="ofurefli"/>
@@ -5274,10 +5276,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að konum veitti auðvelt að hafa áhrif á hann sem ekki væri ámælisvert"/>
     <s v="ofurefli"/>
@@ -5288,10 +5290,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að þetta tæki sig jafnsárt þegar til kæmi"/>
     <s v="ofurefli"/>
@@ -5302,10 +5304,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að Grímsi var farinn að hlusta"/>
     <s v="ofurefli"/>
@@ -5316,10 +5318,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að þetta skyldi vera sama stúlkan sem hafði sagt honum nokkurum dögum áður frá foreldrum sínum af svo barnslegri einlægni"/>
     <s v="ofurefli"/>
@@ -5372,10 +5374,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <s v="IP-INF-SPE"/>
     <s v="á því að taka dóttur mína saklausa sveitastúlku sem aldrei hefir gert honum neitt mein stórspilla henni sjálfri og fara með mannorð hennar svo rækilega að hún eigi sér aldrei uppreisnar von alla sína æfi"/>
     <s v="ofurefli"/>
@@ -5414,10 +5416,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <s v="CP-THT-SPE-PRN"/>
     <s v="á því"/>
     <s v="ofurefli"/>
@@ -6033,7 +6035,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="IP-INF"/>
     <s v="á að smassa og lauma og vippa"/>
     <s v="mamma"/>
@@ -6047,7 +6049,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="IP-INF"/>
     <s v="á því að fylla upp í götin með húsum í anda íslenskrar hefðar í arkitektúr það er að segja að hafa heildarsvipinn sundurgerðarlegan og svolítið skrautlegan"/>
     <s v="mamma"/>
@@ -6061,7 +6063,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að hún sé með hvítan drengjakoll og sé hæglát eða einræn bláeyg grannvaxin feimin tónelsk"/>
     <s v="mamma"/>
@@ -6075,7 +6077,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="IP-INF"/>
     <s v="á því að horfa á Sex and the city og borða kúlusúkk eða hanga í símanum"/>
     <s v="mamma"/>
@@ -6089,7 +6091,7 @@
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="IP-INF"/>
     <s v="á mig fara úr buxunum og nærbuxunum"/>
     <s v="mamma"/>
@@ -6103,7 +6105,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="IP-INF"/>
     <s v="á því að heyra eitthvert þjóðmálaþref"/>
     <s v="mamma"/>
@@ -6117,7 +6119,7 @@
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="IP-INF"/>
     <s v="á pabba hlusta á Wild Man Blues"/>
     <s v="mamma"/>
@@ -6145,7 +6147,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="IP-INF-PRN"/>
     <s v="á því að fá Peter Lorre og Sidney Greenstreet í heimsókn á hverri stundu"/>
     <s v="mamma"/>
@@ -6159,7 +6161,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að hún segði það eins og persóna í skáldsögu eftir Skáldísi ömmu"/>
     <s v="mamma"/>
@@ -6173,7 +6175,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að þetta myndi enda þarna því ég hélt að þetta væri upphafið"/>
     <s v="mamma"/>
@@ -6187,7 +6189,7 @@
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="IP-INF"/>
     <s v="á landið þjóta hjá"/>
     <s v="mamma"/>
@@ -6229,7 +6231,7 @@
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="CP-THT"/>
     <s v="á að ég leitaði aldrei á þá að fyrra bragði"/>
     <s v="ofsi"/>
@@ -6243,7 +6245,7 @@
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="IP-INF"/>
     <s v="á flokk manna fara nokkurskonar gandreið á hestum að vísu en á lofti og stefnandi til himna flokk manna í ljósum línklæðum eins og oft er sveipað utan um lík"/>
     <s v="ofsi"/>
@@ -6257,7 +6259,7 @@
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="IP-INF-SPE"/>
     <s v="á að vera kominn í embætti þessa Hólabiskups taka sæti hins fatlaða meinlætabiskups sem var helst skotspónn hrekkja og illkvittinna gamanmála af hálfu þeirra sálna sem hann gætti"/>
     <s v="ofsi"/>
@@ -6271,7 +6273,7 @@
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="CP-THT"/>
     <s v="á að ég fari hér með völd konungs í hans fjarveru en fullu umboði"/>
     <s v="ofsi"/>
@@ -6285,7 +6287,7 @@
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="IP-INF"/>
     <s v="á að fylgja sér inn í vinnustofu sína þar sem voru blekbyttur og skrifaðar bækur og skinnhlaði sem köttur svaf ofan á"/>
     <s v="ofsi"/>
@@ -6299,7 +6301,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að hann var logandi hræddur"/>
     <s v="ofsi"/>
@@ -6313,7 +6315,7 @@
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="CP-THT"/>
     <s v="á að Hrafn gæti haft rétt fyrir sér í því"/>
     <s v="ofsi"/>
@@ -6327,7 +6329,7 @@
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="IP-INF"/>
     <s v="á að slást í þessa herför með okkur"/>
     <s v="ofsi"/>
@@ -6341,7 +6343,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="CP-THT"/>
     <s v="á að ekki skuli þær fyllri gleggri eða gleðilegri"/>
     <s v="ofsi"/>
@@ -6355,7 +6357,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="CP-THT-PRN"/>
     <s v="á því að augnabliki síðar er Sturla búinn að taka upp sama sið"/>
     <s v="ofsi"/>
@@ -6383,7 +6385,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="IP-INF"/>
     <s v="á að hleypa honum ekki frá Noregi á ný"/>
     <s v="ofsi"/>
@@ -6397,7 +6399,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="CP-THT"/>
     <s v="á að kannski heyrðu til mín aðrir á bænum"/>
     <s v="ofsi"/>
@@ -8611,10 +8613,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <s v="IP-INF-SPE"/>
     <s v="á það"/>
     <s v="ofurefli"/>
@@ -8709,10 +8711,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <s v="CP-THT-PRN"/>
     <s v="á það"/>
     <s v="arin"/>
@@ -8793,10 +8795,10 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
     <s v="IP-INF-PRN"/>
     <s v="á það að taka á sig hógværðarok Krists og bera byrðar lífsins og mótgerðir annarra í því"/>
     <s v="arin"/>
@@ -9059,9 +9061,9 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="1"/>
     <s v="IP-INF"/>
     <s v="á að smassa og lauma og vippa"/>
@@ -9073,9 +9075,9 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="1"/>
     <s v="IP-INF"/>
     <s v="á mig fara úr buxunum og nærbuxunum"/>
@@ -9087,9 +9089,9 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="1"/>
     <s v="IP-INF"/>
     <s v="á pabba hlusta á Wild Man Blues"/>
@@ -9101,10 +9103,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
     <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
     <s v="CP-QUE"/>
     <s v="á hvað yrði úr"/>
     <s v="mamma"/>
@@ -9115,9 +9117,9 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="1"/>
     <s v="IP-INF"/>
     <s v="á landið þjóta hjá"/>
@@ -9129,10 +9131,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
     <s v="CP-THT"/>
     <s v="á að ég leitaði aldrei á þá að fyrra bragði"/>
     <s v="ofsi"/>
@@ -9143,9 +9145,9 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="1"/>
     <s v="IP-INF"/>
     <s v="á flokk manna fara nokkurskonar gandreið á hestum að vísu en á lofti og stefnandi til himna flokk manna í ljósum línklæðum eins og oft er sveipað utan um lík"/>
@@ -9157,9 +9159,9 @@
   </r>
   <r>
     <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
     <x v="1"/>
     <s v="IP-INF-SPE"/>
     <s v="á að vera kominn í embætti þessa Hólabiskups taka sæti hins fatlaða meinlætabiskups sem var helst skotspónn hrekkja og illkvittinna gamanmála af hálfu þeirra sálna sem hann gætti"/>
@@ -9171,10 +9173,10 @@
   </r>
   <r>
     <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
+    <x v="2"/>
     <s v="CP-THT"/>
     <s v="á að ég fari hér með völd konungs í hans fjarveru en fullu umboði"/>
     <s v="ofsi"/>
@@ -9185,9 +9187,9 @@
   </r>
   <r>
     <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
     <x v="1"/>
     <s v="IP-INF"/>
     <s v="á að fylgja sér inn í vinnustofu sína þar sem voru blekbyttur og skrifaðar bækur og skinnhlaði sem köttur svaf ofan á"/>
@@ -9199,10 +9201,10 @@
   </r>
   <r>
     <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
+    <x v="2"/>
     <s v="CP-THT"/>
     <s v="á að Hrafn gæti haft rétt fyrir sér í því"/>
     <s v="ofsi"/>
@@ -9213,9 +9215,9 @@
   </r>
   <r>
     <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
     <x v="1"/>
     <s v="IP-INF"/>
     <s v="á að slást í þessa herför með okkur"/>
@@ -9227,10 +9229,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
     <s v="CP-THT"/>
     <s v="á að ekki skuli þær fyllri gleggri eða gleðilegri"/>
     <s v="ofsi"/>
@@ -9241,9 +9243,9 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="1"/>
     <s v="IP-INF"/>
     <s v="á að hleypa honum ekki frá Noregi á ný"/>
@@ -9255,10 +9257,10 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
     <s v="CP-THT"/>
     <s v="á að kannski heyrðu til mín aðrir á bænum"/>
     <s v="ofsi"/>
@@ -9312,17 +9314,18 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
         <item x="0"/>
+        <item x="2"/>
         <item x="1"/>
-        <item x="2"/>
         <item x="3"/>
         <item t="default"/>
       </items>
@@ -9438,8 +9441,8 @@
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9451,8 +9454,9 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
+        <item x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -9461,8 +9465,8 @@
       <items count="5">
         <item x="0"/>
         <item x="1"/>
+        <item x="3"/>
         <item x="2"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14194,7 +14198,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="130" ht="14.25">
+    <row r="130" ht="14.25" hidden="1">
       <c r="A130" s="2">
         <v>0</v>
       </c>
@@ -14226,7 +14230,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="131" ht="14.25">
+    <row r="131" ht="14.25" hidden="1">
       <c r="A131" s="2">
         <v>0</v>
       </c>
@@ -14258,7 +14262,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" ht="14.25">
+    <row r="132" ht="14.25" hidden="1">
       <c r="A132" s="2">
         <v>0</v>
       </c>
@@ -14290,7 +14294,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="133" ht="14.25">
+    <row r="133" ht="14.25" hidden="1">
       <c r="A133" s="2">
         <v>0</v>
       </c>
@@ -14322,7 +14326,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="134" ht="14.25">
+    <row r="134" ht="14.25" hidden="1">
       <c r="A134" s="2">
         <v>0</v>
       </c>
@@ -14354,7 +14358,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="135" ht="14.25">
+    <row r="135" ht="14.25" hidden="1">
       <c r="A135" s="2">
         <v>0</v>
       </c>
@@ -14386,7 +14390,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="136" ht="14.25">
+    <row r="136" ht="14.25" hidden="1">
       <c r="A136" s="2">
         <v>0</v>
       </c>
@@ -14418,7 +14422,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="137" ht="14.25">
+    <row r="137" ht="14.25" hidden="1">
       <c r="A137" s="2">
         <v>0</v>
       </c>
@@ -14450,7 +14454,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="138" ht="14.25">
+    <row r="138" ht="14.25" hidden="1">
       <c r="A138" s="2">
         <v>0</v>
       </c>
@@ -14486,17 +14490,23 @@
       <c r="A139" s="2">
         <v>1</v>
       </c>
-      <c r="B139" s="2"/>
+      <c r="B139" s="2">
+        <v>1</v>
+      </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
+      <c r="D139" s="2">
+        <v>0</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="F139" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H139" s="3" t="s">
         <v>313</v>
@@ -14511,24 +14521,30 @@
         <v>62064</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="140" ht="14.25">
       <c r="A140" s="2">
         <v>1</v>
       </c>
-      <c r="B140" s="2"/>
+      <c r="B140" s="2">
+        <v>1</v>
+      </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
+      <c r="D140" s="2">
+        <v>0</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F140" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>313</v>
@@ -14543,10 +14559,10 @@
         <v>62588</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="141" ht="14.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" hidden="1">
       <c r="A141" s="2">
         <v>0</v>
       </c>
@@ -14560,7 +14576,7 @@
         <v>18</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>313</v>
@@ -14575,24 +14591,30 @@
         <v>62795</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" ht="14.25">
       <c r="A142" s="2">
         <v>1</v>
       </c>
-      <c r="B142" s="2"/>
+      <c r="B142" s="2">
+        <v>1</v>
+      </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
+      <c r="D142" s="2">
+        <v>0</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="F142" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>313</v>
@@ -14607,10 +14629,10 @@
         <v>62815</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="143" ht="14.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25" hidden="1">
       <c r="A143" s="2">
         <v>0</v>
       </c>
@@ -14624,7 +14646,7 @@
         <v>18</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H143" s="3" t="s">
         <v>313</v>
@@ -14639,10 +14661,10 @@
         <v>62998</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="144" ht="14.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25" hidden="1">
       <c r="A144" s="2">
         <v>0</v>
       </c>
@@ -14656,7 +14678,7 @@
         <v>18</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>313</v>
@@ -14671,10 +14693,10 @@
         <v>62999</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="145" ht="14.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="145" ht="14.25" hidden="1">
       <c r="A145" s="2">
         <v>0</v>
       </c>
@@ -14688,7 +14710,7 @@
         <v>18</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>313</v>
@@ -14703,10 +14725,10 @@
         <v>63044</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="146" ht="14.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25" hidden="1">
       <c r="A146" s="2">
         <v>0</v>
       </c>
@@ -14720,7 +14742,7 @@
         <v>24</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>313</v>
@@ -14735,10 +14757,10 @@
         <v>63285</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="147" ht="14.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25" hidden="1">
       <c r="A147" s="2">
         <v>0</v>
       </c>
@@ -14752,10 +14774,10 @@
         <v>18</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I147" s="3">
         <v>20</v>
@@ -14767,10 +14789,10 @@
         <v>63367</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="148" ht="14.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25" hidden="1">
       <c r="A148" s="2">
         <v>0</v>
       </c>
@@ -14784,10 +14806,10 @@
         <v>18</v>
       </c>
       <c r="G148" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H148" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="I148" s="3">
         <v>20</v>
@@ -14799,27 +14821,33 @@
         <v>63437</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="149" ht="14.25">
       <c r="A149" s="2">
         <v>1</v>
       </c>
-      <c r="B149" s="2"/>
+      <c r="B149" s="2">
+        <v>1</v>
+      </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
+      <c r="D149" s="2">
+        <v>0</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="F149" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I149" s="3">
         <v>20</v>
@@ -14831,27 +14859,33 @@
         <v>63457</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="150" ht="14.25">
       <c r="A150" s="2">
         <v>1</v>
       </c>
-      <c r="B150" s="2"/>
+      <c r="B150" s="2">
+        <v>1</v>
+      </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
+      <c r="D150" s="2">
+        <v>0</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="F150" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I150" s="3">
         <v>20</v>
@@ -14863,27 +14897,33 @@
         <v>63460</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="151" ht="14.25">
       <c r="A151" s="2">
         <v>1</v>
       </c>
-      <c r="B151" s="2"/>
+      <c r="B151" s="2">
+        <v>1</v>
+      </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
+      <c r="D151" s="2">
+        <v>0</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="F151" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I151" s="3">
         <v>20</v>
@@ -14895,10 +14935,10 @@
         <v>63692</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="152" ht="14.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25" hidden="1">
       <c r="A152" s="2">
         <v>0</v>
       </c>
@@ -14912,10 +14952,10 @@
         <v>18</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I152" s="3">
         <v>20</v>
@@ -14927,10 +14967,10 @@
         <v>63710</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="153" ht="14.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25" hidden="1">
       <c r="A153" s="2">
         <v>0</v>
       </c>
@@ -14944,10 +14984,10 @@
         <v>21</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I153" s="3">
         <v>20</v>
@@ -14959,27 +14999,33 @@
         <v>63810</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="154" ht="14.25">
       <c r="A154" s="2">
         <v>1</v>
       </c>
-      <c r="B154" s="2"/>
+      <c r="B154" s="2">
+        <v>1</v>
+      </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
+      <c r="D154" s="2">
+        <v>0</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="F154" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I154" s="3">
         <v>20</v>
@@ -14991,27 +15037,33 @@
         <v>63872</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="155" ht="14.25">
       <c r="A155" s="2">
         <v>1</v>
       </c>
-      <c r="B155" s="2"/>
+      <c r="B155" s="2">
+        <v>1</v>
+      </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
+      <c r="D155" s="2">
+        <v>0</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="F155" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I155" s="3">
         <v>20</v>
@@ -15023,10 +15075,10 @@
         <v>63873</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="156" ht="14.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="156" ht="14.25" hidden="1">
       <c r="A156" s="2">
         <v>0</v>
       </c>
@@ -15040,10 +15092,10 @@
         <v>18</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I156" s="3">
         <v>20</v>
@@ -15055,10 +15107,10 @@
         <v>63873</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="157" ht="14.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="157" ht="14.25" hidden="1">
       <c r="A157" s="2">
         <v>0</v>
       </c>
@@ -15072,10 +15124,10 @@
         <v>36</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I157" s="3">
         <v>20</v>
@@ -15087,19 +15139,25 @@
         <v>64045</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="158" ht="14.25">
       <c r="A158" s="2">
         <v>1</v>
       </c>
-      <c r="B158" s="2"/>
+      <c r="B158" s="2">
+        <v>1</v>
+      </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
+      <c r="D158" s="2">
+        <v>0</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="F158" s="3" t="s">
         <v>13</v>
       </c>
@@ -15107,7 +15165,7 @@
         <v>14</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I158" s="3">
         <v>20</v>
@@ -15119,27 +15177,33 @@
         <v>64258</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="159" ht="14.25">
       <c r="A159" s="2">
         <v>1</v>
       </c>
-      <c r="B159" s="2"/>
+      <c r="B159" s="2">
+        <v>1</v>
+      </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
+      <c r="D159" s="2">
+        <v>1</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="F159" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I159" s="3">
         <v>20</v>
@@ -15151,10 +15215,10 @@
         <v>64469</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="160" ht="14.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="160" ht="14.25" hidden="1">
       <c r="A160" s="2">
         <v>0</v>
       </c>
@@ -15168,10 +15232,10 @@
         <v>49</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I160" s="3">
         <v>20</v>
@@ -15183,27 +15247,33 @@
         <v>64507</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="161" ht="14.25">
       <c r="A161" s="2">
         <v>1</v>
       </c>
-      <c r="B161" s="2"/>
+      <c r="B161" s="2">
+        <v>1</v>
+      </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
+      <c r="D161" s="2">
+        <v>0</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="F161" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I161" s="3">
         <v>20</v>
@@ -15215,27 +15285,33 @@
         <v>64769</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="162" ht="14.25">
       <c r="A162" s="2">
         <v>1</v>
       </c>
-      <c r="B162" s="2"/>
+      <c r="B162" s="2">
+        <v>1</v>
+      </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
+      <c r="D162" s="2">
+        <v>0</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="F162" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I162" s="3">
         <v>20</v>
@@ -15247,27 +15323,33 @@
         <v>64776</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="163" ht="14.25">
       <c r="A163" s="2">
         <v>1</v>
       </c>
-      <c r="B163" s="2"/>
+      <c r="B163" s="2">
+        <v>1</v>
+      </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
+      <c r="D163" s="2">
+        <v>0</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="F163" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I163" s="3">
         <v>20</v>
@@ -15279,27 +15361,33 @@
         <v>64796</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="164" ht="14.25">
       <c r="A164" s="2">
         <v>1</v>
       </c>
-      <c r="B164" s="2"/>
+      <c r="B164" s="2">
+        <v>1</v>
+      </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
+      <c r="D164" s="2">
+        <v>0</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="F164" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I164" s="3">
         <v>20</v>
@@ -15311,10 +15399,10 @@
         <v>64880</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="165" ht="14.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="165" ht="14.25" hidden="1">
       <c r="A165" s="2">
         <v>0</v>
       </c>
@@ -15328,10 +15416,10 @@
         <v>36</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I165" s="3">
         <v>20</v>
@@ -15343,10 +15431,10 @@
         <v>64942</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="166" ht="14.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="166" ht="14.25" hidden="1">
       <c r="A166" s="2">
         <v>0</v>
       </c>
@@ -15360,10 +15448,10 @@
         <v>49</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I166" s="3">
         <v>20</v>
@@ -15375,10 +15463,10 @@
         <v>64977</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="167" ht="14.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="167" ht="14.25" hidden="1">
       <c r="A167" s="2">
         <v>0</v>
       </c>
@@ -15392,10 +15480,10 @@
         <v>36</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I167" s="3">
         <v>20</v>
@@ -15407,27 +15495,33 @@
         <v>64978</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="168" ht="14.25">
       <c r="A168" s="2">
         <v>1</v>
       </c>
-      <c r="B168" s="2"/>
+      <c r="B168" s="2">
+        <v>1</v>
+      </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
+      <c r="D168" s="2">
+        <v>0</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F168" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I168" s="3">
         <v>20</v>
@@ -15439,10 +15533,10 @@
         <v>64982</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="169" ht="14.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="169" ht="14.25" hidden="1">
       <c r="A169" s="2">
         <v>0</v>
       </c>
@@ -15456,10 +15550,10 @@
         <v>36</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I169" s="3">
         <v>20</v>
@@ -15471,10 +15565,10 @@
         <v>64983</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="170" ht="14.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="170" ht="14.25" hidden="1">
       <c r="A170" s="2">
         <v>0</v>
       </c>
@@ -15488,10 +15582,10 @@
         <v>89</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I170" s="3">
         <v>20</v>
@@ -15503,19 +15597,25 @@
         <v>65093</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="171" ht="14.25">
       <c r="A171" s="2">
         <v>1</v>
       </c>
-      <c r="B171" s="2"/>
+      <c r="B171" s="2">
+        <v>1</v>
+      </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
+      <c r="D171" s="2">
+        <v>1</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="F171" s="3" t="s">
         <v>92</v>
       </c>
@@ -15523,7 +15623,7 @@
         <v>14</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I171" s="3">
         <v>20</v>
@@ -15535,10 +15635,10 @@
         <v>65093</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="172" ht="14.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25" hidden="1">
       <c r="A172" s="2">
         <v>0</v>
       </c>
@@ -15552,10 +15652,10 @@
         <v>18</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I172" s="3">
         <v>20</v>
@@ -15567,10 +15667,10 @@
         <v>65116</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="173" ht="14.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="173" ht="14.25" hidden="1">
       <c r="A173" s="2">
         <v>0</v>
       </c>
@@ -15584,10 +15684,10 @@
         <v>21</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I173" s="3">
         <v>20</v>
@@ -15599,10 +15699,10 @@
         <v>65122</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="174" ht="14.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="174" ht="14.25" hidden="1">
       <c r="A174" s="2">
         <v>0</v>
       </c>
@@ -15616,10 +15716,10 @@
         <v>18</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I174" s="3">
         <v>20</v>
@@ -15631,10 +15731,10 @@
         <v>65207</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="175" ht="14.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="175" ht="14.25" hidden="1">
       <c r="A175" s="2">
         <v>0</v>
       </c>
@@ -15648,10 +15748,10 @@
         <v>21</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I175" s="3">
         <v>20</v>
@@ -15663,10 +15763,10 @@
         <v>65216</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="176" ht="14.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="176" ht="14.25" hidden="1">
       <c r="A176" s="2">
         <v>0</v>
       </c>
@@ -15680,10 +15780,10 @@
         <v>24</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I176" s="3">
         <v>20</v>
@@ -15695,27 +15795,33 @@
         <v>65220</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="177" ht="14.25">
       <c r="A177" s="2">
         <v>1</v>
       </c>
-      <c r="B177" s="2"/>
+      <c r="B177" s="2">
+        <v>1</v>
+      </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
+      <c r="D177" s="2">
+        <v>0</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="F177" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I177" s="3">
         <v>20</v>
@@ -15727,10 +15833,10 @@
         <v>65412</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="178" ht="14.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="178" ht="14.25" hidden="1">
       <c r="A178" s="2">
         <v>0</v>
       </c>
@@ -15744,10 +15850,10 @@
         <v>18</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I178" s="3">
         <v>20</v>
@@ -15759,10 +15865,10 @@
         <v>65423</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="179" ht="14.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="179" ht="14.25" hidden="1">
       <c r="A179" s="2">
         <v>0</v>
       </c>
@@ -15776,10 +15882,10 @@
         <v>18</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I179" s="3">
         <v>20</v>
@@ -15791,27 +15897,33 @@
         <v>65423</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="180" ht="14.25">
       <c r="A180" s="2">
         <v>1</v>
       </c>
-      <c r="B180" s="2"/>
+      <c r="B180" s="2">
+        <v>1</v>
+      </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
+      <c r="D180" s="2">
+        <v>0</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="F180" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I180" s="3">
         <v>20</v>
@@ -15823,10 +15935,10 @@
         <v>65451</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="181" ht="14.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="181" ht="14.25" hidden="1">
       <c r="A181" s="2">
         <v>0</v>
       </c>
@@ -15840,10 +15952,10 @@
         <v>24</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I181" s="3">
         <v>20</v>
@@ -15855,10 +15967,10 @@
         <v>65615</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="182" ht="14.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="182" ht="14.25" hidden="1">
       <c r="A182" s="2">
         <v>0</v>
       </c>
@@ -15872,10 +15984,10 @@
         <v>24</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I182" s="3">
         <v>20</v>
@@ -15887,10 +15999,10 @@
         <v>65672</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="183" ht="14.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="183" ht="14.25" hidden="1">
       <c r="A183" s="2">
         <v>0</v>
       </c>
@@ -15904,10 +16016,10 @@
         <v>24</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I183" s="3">
         <v>20</v>
@@ -15919,10 +16031,10 @@
         <v>65695</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="184" ht="14.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="184" ht="14.25" hidden="1">
       <c r="A184" s="2">
         <v>0</v>
       </c>
@@ -15936,10 +16048,10 @@
         <v>21</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I184" s="3">
         <v>20</v>
@@ -15951,10 +16063,10 @@
         <v>65751</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="185" ht="14.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="185" ht="14.25" hidden="1">
       <c r="A185" s="2">
         <v>0</v>
       </c>
@@ -15968,10 +16080,10 @@
         <v>24</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I185" s="3">
         <v>20</v>
@@ -15983,10 +16095,10 @@
         <v>65859</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="186" ht="14.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="186" ht="14.25" hidden="1">
       <c r="A186" s="2">
         <v>0</v>
       </c>
@@ -16000,10 +16112,10 @@
         <v>21</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I186" s="3">
         <v>20</v>
@@ -16015,10 +16127,10 @@
         <v>65938</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="187" ht="14.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="187" ht="14.25" hidden="1">
       <c r="A187" s="2">
         <v>0</v>
       </c>
@@ -16032,10 +16144,10 @@
         <v>18</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I187" s="3">
         <v>20</v>
@@ -16047,10 +16159,10 @@
         <v>65974</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="188" ht="14.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="188" ht="14.25" hidden="1">
       <c r="A188" s="2">
         <v>0</v>
       </c>
@@ -16064,10 +16176,10 @@
         <v>18</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I188" s="3">
         <v>20</v>
@@ -16079,10 +16191,10 @@
         <v>65979</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="189" ht="14.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="189" ht="14.25" hidden="1">
       <c r="A189" s="2">
         <v>0</v>
       </c>
@@ -16096,10 +16208,10 @@
         <v>24</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I189" s="3">
         <v>20</v>
@@ -16111,10 +16223,10 @@
         <v>65992</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="190" ht="14.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="190" ht="14.25" hidden="1">
       <c r="A190" s="2">
         <v>0</v>
       </c>
@@ -16128,10 +16240,10 @@
         <v>24</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I190" s="3">
         <v>20</v>
@@ -16143,27 +16255,33 @@
         <v>66014</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="191" ht="14.25">
       <c r="A191" s="2">
         <v>1</v>
       </c>
-      <c r="B191" s="2"/>
+      <c r="B191" s="2">
+        <v>1</v>
+      </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
+      <c r="D191" s="2">
+        <v>0</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F191" s="3" t="s">
         <v>149</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I191" s="3">
         <v>20</v>
@@ -16175,10 +16293,10 @@
         <v>66076</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="192" ht="14.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="192" ht="14.25" hidden="1">
       <c r="A192" s="2">
         <v>0</v>
       </c>
@@ -16192,10 +16310,10 @@
         <v>21</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I192" s="3">
         <v>20</v>
@@ -16207,10 +16325,10 @@
         <v>66076</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="193" ht="14.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="193" ht="14.25" hidden="1">
       <c r="A193" s="2">
         <v>0</v>
       </c>
@@ -16224,10 +16342,10 @@
         <v>18</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I193" s="3">
         <v>20</v>
@@ -16239,27 +16357,33 @@
         <v>66873</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="194" ht="14.25">
       <c r="A194" s="2">
         <v>1</v>
       </c>
-      <c r="B194" s="2"/>
+      <c r="B194" s="2">
+        <v>1</v>
+      </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
+      <c r="D194" s="2">
+        <v>0</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F194" s="3" t="s">
         <v>149</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I194" s="3">
         <v>20</v>
@@ -16271,27 +16395,33 @@
         <v>66939</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="195" ht="14.25">
       <c r="A195" s="2">
         <v>1</v>
       </c>
-      <c r="B195" s="2"/>
+      <c r="B195" s="2">
+        <v>1</v>
+      </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
+      <c r="D195" s="2">
+        <v>0</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="F195" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I195" s="3">
         <v>20</v>
@@ -16303,27 +16433,33 @@
         <v>66950</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="196" ht="14.25">
       <c r="A196" s="2">
         <v>1</v>
       </c>
-      <c r="B196" s="2"/>
+      <c r="B196" s="2">
+        <v>1</v>
+      </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
+      <c r="D196" s="2">
+        <v>0</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="F196" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I196" s="3">
         <v>20</v>
@@ -16335,7 +16471,7 @@
         <v>67059</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="197" ht="14.25">
@@ -16355,7 +16491,7 @@
         <v>14</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I197" s="3">
         <v>20</v>
@@ -16367,7 +16503,7 @@
         <v>67143</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="198" ht="14.25">
@@ -16384,10 +16520,10 @@
         <v>13</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I198" s="3">
         <v>20</v>
@@ -16399,7 +16535,7 @@
         <v>67286</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="199" ht="14.25">
@@ -16416,10 +16552,10 @@
         <v>201</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I199" s="3">
         <v>20</v>
@@ -16431,7 +16567,7 @@
         <v>67361</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="200" ht="14.25">
@@ -16448,10 +16584,10 @@
         <v>92</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I200" s="3">
         <v>20</v>
@@ -16463,10 +16599,10 @@
         <v>67513</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="201" ht="14.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="201" ht="14.25" hidden="1">
       <c r="A201" s="2">
         <v>0</v>
       </c>
@@ -16480,10 +16616,10 @@
         <v>49</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I201" s="3">
         <v>20</v>
@@ -16495,7 +16631,7 @@
         <v>67518</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="202" ht="14.25">
@@ -16515,7 +16651,7 @@
         <v>14</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I202" s="3">
         <v>20</v>
@@ -16527,7 +16663,7 @@
         <v>67529</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="203" ht="14.25">
@@ -16544,10 +16680,10 @@
         <v>13</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I203" s="3">
         <v>20</v>
@@ -16559,7 +16695,7 @@
         <v>67632</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="204" ht="14.25">
@@ -16576,10 +16712,10 @@
         <v>201</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I204" s="3">
         <v>20</v>
@@ -16591,7 +16727,7 @@
         <v>67693</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="205" ht="14.25">
@@ -16611,7 +16747,7 @@
         <v>14</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I205" s="3">
         <v>20</v>
@@ -16623,7 +16759,7 @@
         <v>67794</v>
       </c>
       <c r="L205" s="3" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="206" ht="14.25">
@@ -16640,10 +16776,10 @@
         <v>13</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I206" s="3">
         <v>20</v>
@@ -16655,10 +16791,10 @@
         <v>68074</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="207" ht="14.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="207" ht="14.25" hidden="1">
       <c r="A207" s="2">
         <v>0</v>
       </c>
@@ -16672,10 +16808,10 @@
         <v>18</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I207" s="3">
         <v>20</v>
@@ -16687,10 +16823,10 @@
         <v>68129</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="208" ht="14.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="208" ht="14.25" hidden="1">
       <c r="A208" s="2">
         <v>0</v>
       </c>
@@ -16704,10 +16840,10 @@
         <v>18</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I208" s="3">
         <v>20</v>
@@ -16719,10 +16855,10 @@
         <v>68613</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="209" ht="14.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="209" ht="14.25" hidden="1">
       <c r="A209" s="2">
         <v>0</v>
       </c>
@@ -16736,10 +16872,10 @@
         <v>49</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I209" s="3">
         <v>20</v>
@@ -16751,10 +16887,10 @@
         <v>68738</v>
       </c>
       <c r="L209" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="210" ht="14.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="210" ht="14.25" hidden="1">
       <c r="A210" s="2">
         <v>0</v>
       </c>
@@ -16768,10 +16904,10 @@
         <v>49</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I210" s="3">
         <v>20</v>
@@ -16783,10 +16919,10 @@
         <v>68741</v>
       </c>
       <c r="L210" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="211" ht="14.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="211" ht="14.25" hidden="1">
       <c r="A211" s="2">
         <v>0</v>
       </c>
@@ -16800,10 +16936,10 @@
         <v>18</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I211" s="3">
         <v>20</v>
@@ -16815,10 +16951,10 @@
         <v>69467</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="212" ht="14.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="212" ht="14.25" hidden="1">
       <c r="A212" s="2">
         <v>0</v>
       </c>
@@ -16832,10 +16968,10 @@
         <v>49</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I212" s="3">
         <v>20</v>
@@ -16847,10 +16983,10 @@
         <v>69607</v>
       </c>
       <c r="L212" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="213" ht="14.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="213" ht="14.25" hidden="1">
       <c r="A213" s="2">
         <v>0</v>
       </c>
@@ -16864,10 +17000,10 @@
         <v>18</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I213" s="3">
         <v>20</v>
@@ -16879,10 +17015,10 @@
         <v>69623</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="214" ht="14.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="214" ht="14.25" hidden="1">
       <c r="A214" s="2">
         <v>0</v>
       </c>
@@ -16896,10 +17032,10 @@
         <v>18</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I214" s="3">
         <v>20</v>
@@ -16911,7 +17047,7 @@
         <v>69952</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="215" ht="14.25" hidden="1">
@@ -16928,16 +17064,16 @@
         <v>0</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I215" s="3">
         <v>21</v>
@@ -16949,7 +17085,7 @@
         <v>69979</v>
       </c>
       <c r="L215" s="3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="216" ht="14.25" hidden="1">
@@ -16966,16 +17102,16 @@
         <v>0</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G216" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H216" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="H216" s="3" t="s">
-        <v>466</v>
       </c>
       <c r="I216" s="3">
         <v>21</v>
@@ -16987,7 +17123,7 @@
         <v>70212</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="217" ht="14.25" hidden="1">
@@ -17004,16 +17140,16 @@
         <v>0</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>470</v>
+        <v>317</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I217" s="3">
         <v>21</v>
@@ -17025,7 +17161,7 @@
         <v>70232</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="218" ht="14.25" hidden="1">
@@ -17042,16 +17178,16 @@
         <v>0</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I218" s="3">
         <v>21</v>
@@ -17063,7 +17199,7 @@
         <v>70237</v>
       </c>
       <c r="L218" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="219" ht="14.25" hidden="1">
@@ -17080,16 +17216,16 @@
         <v>0</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I219" s="3">
         <v>21</v>
@@ -17101,7 +17237,7 @@
         <v>70461</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="220" ht="14.25" hidden="1">
@@ -17118,16 +17254,16 @@
         <v>0</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I220" s="3">
         <v>21</v>
@@ -17139,7 +17275,7 @@
         <v>70656</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="221" ht="14.25" hidden="1">
@@ -17156,16 +17292,16 @@
         <v>0</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I221" s="3">
         <v>21</v>
@@ -17177,7 +17313,7 @@
         <v>70899</v>
       </c>
       <c r="L221" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="222" ht="14.25" hidden="1">
@@ -17194,7 +17330,7 @@
         <v>0</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>481</v>
+        <v>358</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>24</v>
@@ -17203,7 +17339,7 @@
         <v>482</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I222" s="3">
         <v>21</v>
@@ -17232,7 +17368,7 @@
         <v>0</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>149</v>
@@ -17241,7 +17377,7 @@
         <v>484</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I223" s="3">
         <v>21</v>
@@ -17270,7 +17406,7 @@
         <v>0</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>13</v>
@@ -17279,7 +17415,7 @@
         <v>486</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I224" s="3">
         <v>21</v>
@@ -17308,7 +17444,7 @@
         <v>0</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>13</v>
@@ -17317,7 +17453,7 @@
         <v>488</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I225" s="3">
         <v>21</v>
@@ -17346,7 +17482,7 @@
         <v>0</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>18</v>
@@ -17355,7 +17491,7 @@
         <v>490</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I226" s="3">
         <v>21</v>
@@ -17384,7 +17520,7 @@
         <v>0</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>481</v>
+        <v>358</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>24</v>
@@ -17393,7 +17529,7 @@
         <v>492</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I227" s="3">
         <v>21</v>
@@ -17422,7 +17558,7 @@
         <v>0</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>481</v>
+        <v>358</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>145</v>
@@ -17460,7 +17596,7 @@
         <v>0</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>470</v>
+        <v>317</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>21</v>
@@ -17498,7 +17634,7 @@
         <v>0</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>18</v>
@@ -17536,7 +17672,7 @@
         <v>0</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>36</v>
@@ -17574,7 +17710,7 @@
         <v>0</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>470</v>
+        <v>317</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>21</v>
@@ -17612,7 +17748,7 @@
         <v>0</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>18</v>
@@ -17650,7 +17786,7 @@
         <v>0</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>470</v>
+        <v>317</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>13</v>
@@ -17688,7 +17824,7 @@
         <v>0</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>470</v>
+        <v>317</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>21</v>
@@ -17726,7 +17862,7 @@
         <v>0</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>18</v>
@@ -17764,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>470</v>
+        <v>317</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>21</v>
@@ -17802,7 +17938,7 @@
         <v>0</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>470</v>
+        <v>317</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>13</v>
@@ -17840,7 +17976,7 @@
         <v>0</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>481</v>
+        <v>358</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>201</v>
@@ -17878,7 +18014,7 @@
         <v>0</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>18</v>
@@ -17916,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>470</v>
+        <v>317</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>21</v>
@@ -20189,6 +20325,11 @@
     <filterColumn colId="8">
       <filters>
         <filter val="20"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -24324,7 +24465,7 @@
         <v>18</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>313</v>
@@ -24339,7 +24480,7 @@
         <v>62795</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="143" ht="14.25">
@@ -24353,7 +24494,7 @@
         <v>18</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H143" s="3" t="s">
         <v>313</v>
@@ -24368,7 +24509,7 @@
         <v>62998</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144" ht="14.25">
@@ -24382,7 +24523,7 @@
         <v>18</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>313</v>
@@ -24397,7 +24538,7 @@
         <v>62999</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="145" ht="14.25">
@@ -24411,7 +24552,7 @@
         <v>18</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>313</v>
@@ -24426,7 +24567,7 @@
         <v>63044</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="146" ht="14.25">
@@ -24440,7 +24581,7 @@
         <v>24</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>313</v>
@@ -24455,7 +24596,7 @@
         <v>63285</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="147" ht="14.25">
@@ -24469,10 +24610,10 @@
         <v>18</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I147" s="3">
         <v>20</v>
@@ -24484,7 +24625,7 @@
         <v>63367</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="148" ht="14.25">
@@ -24498,10 +24639,10 @@
         <v>18</v>
       </c>
       <c r="G148" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H148" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="I148" s="3">
         <v>20</v>
@@ -24513,7 +24654,7 @@
         <v>63437</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="149" ht="14.25">
@@ -24527,10 +24668,10 @@
         <v>18</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I149" s="3">
         <v>20</v>
@@ -24542,7 +24683,7 @@
         <v>63710</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="150" ht="14.25">
@@ -24556,10 +24697,10 @@
         <v>21</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I150" s="3">
         <v>20</v>
@@ -24571,7 +24712,7 @@
         <v>63810</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="151" ht="14.25">
@@ -24585,10 +24726,10 @@
         <v>18</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I151" s="3">
         <v>20</v>
@@ -24600,7 +24741,7 @@
         <v>63873</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="152" ht="14.25">
@@ -24614,10 +24755,10 @@
         <v>36</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I152" s="3">
         <v>20</v>
@@ -24629,7 +24770,7 @@
         <v>64045</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="153" ht="14.25">
@@ -24643,10 +24784,10 @@
         <v>49</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I153" s="3">
         <v>20</v>
@@ -24658,7 +24799,7 @@
         <v>64507</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="154" ht="14.25">
@@ -24672,10 +24813,10 @@
         <v>36</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I154" s="3">
         <v>20</v>
@@ -24687,7 +24828,7 @@
         <v>64942</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="155" ht="14.25">
@@ -24701,10 +24842,10 @@
         <v>49</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I155" s="3">
         <v>20</v>
@@ -24716,7 +24857,7 @@
         <v>64977</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="156" ht="14.25">
@@ -24730,10 +24871,10 @@
         <v>36</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I156" s="3">
         <v>20</v>
@@ -24745,7 +24886,7 @@
         <v>64978</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="157" ht="14.25">
@@ -24759,10 +24900,10 @@
         <v>36</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I157" s="3">
         <v>20</v>
@@ -24774,16 +24915,25 @@
         <v>64983</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="158" ht="14.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="158" ht="14.25" hidden="1">
       <c r="A158" s="2">
         <v>1</v>
       </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
       <c r="C158" s="1" t="s">
         <v>523</v>
       </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>320</v>
+      </c>
       <c r="F158" s="3" t="s">
         <v>36</v>
       </c>
@@ -24791,7 +24941,7 @@
         <v>530</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I158" s="3">
         <v>20</v>
@@ -24817,10 +24967,10 @@
         <v>89</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I159" s="3">
         <v>20</v>
@@ -24832,7 +24982,7 @@
         <v>65093</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="160" ht="14.25">
@@ -24846,10 +24996,10 @@
         <v>18</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I160" s="3">
         <v>20</v>
@@ -24861,7 +25011,7 @@
         <v>65116</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="161" ht="14.25">
@@ -24875,10 +25025,10 @@
         <v>21</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I161" s="3">
         <v>20</v>
@@ -24890,7 +25040,7 @@
         <v>65122</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="162" ht="14.25">
@@ -24904,10 +25054,10 @@
         <v>18</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I162" s="3">
         <v>20</v>
@@ -24919,7 +25069,7 @@
         <v>65207</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="163" ht="14.25">
@@ -24933,10 +25083,10 @@
         <v>21</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I163" s="3">
         <v>20</v>
@@ -24948,7 +25098,7 @@
         <v>65216</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="164" ht="14.25">
@@ -24962,10 +25112,10 @@
         <v>24</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I164" s="3">
         <v>20</v>
@@ -24977,16 +25127,25 @@
         <v>65220</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="165" ht="14.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="165" ht="14.25" hidden="1">
       <c r="A165" s="2">
         <v>1</v>
       </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
       <c r="C165" s="1" t="s">
         <v>523</v>
       </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>317</v>
+      </c>
       <c r="F165" s="3" t="s">
         <v>13</v>
       </c>
@@ -24994,7 +25153,7 @@
         <v>530</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I165" s="3">
         <v>20</v>
@@ -25020,10 +25179,10 @@
         <v>18</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I166" s="3">
         <v>20</v>
@@ -25035,7 +25194,7 @@
         <v>65423</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="167" ht="14.25">
@@ -25049,10 +25208,10 @@
         <v>18</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I167" s="3">
         <v>20</v>
@@ -25064,7 +25223,7 @@
         <v>65423</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="168" ht="14.25">
@@ -25078,10 +25237,10 @@
         <v>24</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I168" s="3">
         <v>20</v>
@@ -25093,7 +25252,7 @@
         <v>65615</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="169" ht="14.25">
@@ -25107,10 +25266,10 @@
         <v>24</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I169" s="3">
         <v>20</v>
@@ -25122,7 +25281,7 @@
         <v>65672</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="170" ht="14.25">
@@ -25136,10 +25295,10 @@
         <v>24</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I170" s="3">
         <v>20</v>
@@ -25151,16 +25310,25 @@
         <v>65695</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="171" ht="14.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="171" ht="14.25" hidden="1">
       <c r="A171" s="2">
         <v>1</v>
       </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
       <c r="C171" s="1" t="s">
         <v>523</v>
       </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>320</v>
+      </c>
       <c r="F171" s="3" t="s">
         <v>149</v>
       </c>
@@ -25168,7 +25336,7 @@
         <v>583</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I171" s="3">
         <v>20</v>
@@ -25194,10 +25362,10 @@
         <v>21</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I172" s="3">
         <v>20</v>
@@ -25209,7 +25377,7 @@
         <v>65751</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="173" ht="14.25">
@@ -25223,10 +25391,10 @@
         <v>24</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I173" s="3">
         <v>20</v>
@@ -25238,7 +25406,7 @@
         <v>65859</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="174" ht="14.25">
@@ -25252,10 +25420,10 @@
         <v>21</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I174" s="3">
         <v>20</v>
@@ -25267,7 +25435,7 @@
         <v>65938</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="175" ht="14.25">
@@ -25281,10 +25449,10 @@
         <v>18</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I175" s="3">
         <v>20</v>
@@ -25296,7 +25464,7 @@
         <v>65974</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="176" ht="14.25">
@@ -25310,10 +25478,10 @@
         <v>18</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I176" s="3">
         <v>20</v>
@@ -25325,7 +25493,7 @@
         <v>65979</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="177" ht="14.25">
@@ -25339,10 +25507,10 @@
         <v>24</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I177" s="3">
         <v>20</v>
@@ -25354,7 +25522,7 @@
         <v>65992</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="178" ht="14.25">
@@ -25368,10 +25536,10 @@
         <v>24</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I178" s="3">
         <v>20</v>
@@ -25383,7 +25551,7 @@
         <v>66014</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="179" ht="14.25">
@@ -25397,10 +25565,10 @@
         <v>21</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I179" s="3">
         <v>20</v>
@@ -25412,7 +25580,7 @@
         <v>66076</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="180" ht="14.25">
@@ -25426,10 +25594,10 @@
         <v>18</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I180" s="3">
         <v>20</v>
@@ -25441,7 +25609,7 @@
         <v>66873</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="181" ht="14.25">
@@ -25455,10 +25623,10 @@
         <v>49</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I181" s="3">
         <v>20</v>
@@ -25470,7 +25638,7 @@
         <v>67518</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="182" ht="14.25">
@@ -25484,10 +25652,10 @@
         <v>18</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I182" s="3">
         <v>20</v>
@@ -25499,7 +25667,7 @@
         <v>68129</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="183" ht="14.25">
@@ -25513,10 +25681,10 @@
         <v>18</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I183" s="3">
         <v>20</v>
@@ -25528,7 +25696,7 @@
         <v>68613</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="184" ht="14.25">
@@ -25542,10 +25710,10 @@
         <v>49</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I184" s="3">
         <v>20</v>
@@ -25557,7 +25725,7 @@
         <v>68738</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="185" ht="14.25">
@@ -25571,10 +25739,10 @@
         <v>49</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I185" s="3">
         <v>20</v>
@@ -25586,7 +25754,7 @@
         <v>68741</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="186" ht="14.25">
@@ -25600,10 +25768,10 @@
         <v>18</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I186" s="3">
         <v>20</v>
@@ -25615,7 +25783,7 @@
         <v>69467</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="187" ht="14.25">
@@ -25629,10 +25797,10 @@
         <v>49</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I187" s="3">
         <v>20</v>
@@ -25644,7 +25812,7 @@
         <v>69607</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="188" ht="14.25">
@@ -25658,10 +25826,10 @@
         <v>18</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I188" s="3">
         <v>20</v>
@@ -25673,7 +25841,7 @@
         <v>69623</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="189" ht="14.25">
@@ -25687,10 +25855,10 @@
         <v>18</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I189" s="3">
         <v>20</v>
@@ -25702,7 +25870,7 @@
         <v>69952</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="190" ht="14.25" hidden="1">
@@ -25719,16 +25887,16 @@
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I190" s="3">
         <v>21</v>
@@ -25740,7 +25908,7 @@
         <v>69979</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="191" ht="14.25" hidden="1">
@@ -25757,16 +25925,16 @@
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I191" s="3">
         <v>21</v>
@@ -25778,7 +25946,7 @@
         <v>70461</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" ht="14.25" hidden="1">
@@ -25795,16 +25963,16 @@
         <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I192" s="3">
         <v>21</v>
@@ -25816,7 +25984,7 @@
         <v>70899</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="193" ht="14.25" hidden="1">
@@ -25833,7 +26001,7 @@
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>481</v>
+        <v>358</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>24</v>
@@ -25842,7 +26010,7 @@
         <v>482</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I193" s="3">
         <v>21</v>
@@ -25871,7 +26039,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>18</v>
@@ -25880,7 +26048,7 @@
         <v>490</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I194" s="3">
         <v>21</v>
@@ -25909,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>470</v>
+        <v>317</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>21</v>
@@ -25947,7 +26115,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>18</v>
@@ -25985,7 +26153,7 @@
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>36</v>
@@ -26023,7 +26191,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>470</v>
+        <v>317</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>21</v>
@@ -26061,7 +26229,7 @@
         <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>18</v>
@@ -26099,7 +26267,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>470</v>
+        <v>317</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>21</v>
@@ -26137,7 +26305,7 @@
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>18</v>
@@ -26175,7 +26343,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>470</v>
+        <v>317</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>21</v>
@@ -26213,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>18</v>
@@ -26251,7 +26419,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>470</v>
+        <v>317</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>21</v>
@@ -26280,6 +26448,11 @@
     <filterColumn colId="8">
       <filters>
         <filter val="20"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="0"/>
       </filters>
     </filterColumn>
   </autoFilter>
